--- a/aaaaa/doc/release.xlsx
+++ b/aaaaa/doc/release.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\aaaaa\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\aaaaa\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CED0A78-F8DE-4D95-944F-1DFD57909899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D646E3-14B9-4F5E-BC28-70046C31F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="15" r:id="rId1"/>
-    <sheet name="plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Deploy_Plan" sheetId="2" r:id="rId2"/>
     <sheet name="BCA" sheetId="12" r:id="rId3"/>
     <sheet name="links" sheetId="14" r:id="rId4"/>
     <sheet name="Level_Info" sheetId="16" r:id="rId5"/>
@@ -26,7 +26,7 @@
     <sheet name="BCA-issue" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_MailEndCompose" localSheetId="1">plan!#REF!</definedName>
+    <definedName name="_MailEndCompose" localSheetId="1">Deploy_Plan!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4468,18 +4468,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4512,7 +4512,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4555,7 +4555,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4622,7 +4622,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5358,6 +5358,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5370,17 +5382,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5391,8 +5394,56 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5402,57 +5453,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5741,14 +5741,14 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>855</v>
       </c>
@@ -5768,17 +5768,17 @@
       <selection activeCell="F261" sqref="A261:XFD276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="16">
         <v>201807</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="19"/>
@@ -5828,7 +5828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="16">
         <v>201807</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="19"/>
@@ -5858,7 +5858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="16">
         <v>201807</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
@@ -5888,7 +5888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="16">
         <v>201807</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
@@ -5918,7 +5918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="22">
         <v>201808</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
@@ -5948,7 +5948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="22">
         <v>201808</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25"/>
@@ -5978,7 +5978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="22">
         <v>201808</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
@@ -6008,7 +6008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="22">
         <v>201808</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
@@ -6038,7 +6038,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="16">
         <v>201809</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -6068,7 +6068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="16">
         <v>201809</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -6098,7 +6098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="16">
         <v>201809</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -6128,7 +6128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="16">
         <v>201809</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -6158,7 +6158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="22">
         <v>201810</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
@@ -6188,7 +6188,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="22">
         <v>201810</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
@@ -6218,7 +6218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A30" s="22">
         <v>201810</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
@@ -6248,7 +6248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="22">
         <v>201810</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
@@ -6278,7 +6278,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="16">
         <v>201811</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
@@ -6308,7 +6308,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="16">
         <v>201811</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
@@ -6338,7 +6338,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="16">
         <v>201811</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
@@ -6368,7 +6368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="16">
         <v>201811</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="19"/>
@@ -6398,7 +6398,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="22">
         <v>201812</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
@@ -6428,7 +6428,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="22">
         <v>201812</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
@@ -6458,7 +6458,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="22">
         <v>201812</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
@@ -6488,7 +6488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A48" s="22">
         <v>201812</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
@@ -6518,7 +6518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="16">
         <v>201901</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="19"/>
@@ -6548,7 +6548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="16">
         <v>201901</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="19"/>
@@ -6578,7 +6578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="16">
         <v>201901</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="19"/>
@@ -6608,7 +6608,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="16">
         <v>201901</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="19"/>
@@ -6638,7 +6638,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="22">
         <v>201902</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
@@ -6668,7 +6668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="22">
         <v>201902</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
@@ -6698,7 +6698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="22">
         <v>201902</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
@@ -6728,7 +6728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A64" s="22">
         <v>201902</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A65" s="25"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
@@ -6758,7 +6758,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="16">
         <v>201903</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="19"/>
@@ -6788,7 +6788,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="16">
         <v>201903</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="19"/>
@@ -6818,7 +6818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="16">
         <v>201903</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="19"/>
@@ -6848,7 +6848,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="16">
         <v>201903</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="19"/>
@@ -6878,7 +6878,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="30">
         <v>201904</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
       <c r="C75" s="35"/>
@@ -6908,7 +6908,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="30">
         <v>201904</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
       <c r="C77" s="35"/>
@@ -6938,7 +6938,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="30">
         <v>201904</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
       <c r="C79" s="35"/>
@@ -6968,7 +6968,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="30">
         <v>201904</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
       <c r="C81" s="35"/>
@@ -6998,7 +6998,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="38">
         <v>201905</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="42" t="s">
         <v>246</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="38">
         <v>201905</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="42" t="s">
         <v>246</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="30">
         <v>201905</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="33" t="s">
         <v>246</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="30">
         <v>201905</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="33" t="s">
         <v>246</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="38">
         <v>201906</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="42"/>
       <c r="B91" s="43"/>
       <c r="C91" s="44"/>
@@ -7188,7 +7188,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="38">
         <v>201906</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="42"/>
       <c r="B93" s="43"/>
       <c r="C93" s="44"/>
@@ -7218,7 +7218,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A94" s="30">
         <v>201906</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="33"/>
       <c r="B95" s="34"/>
       <c r="C95" s="35"/>
@@ -7248,7 +7248,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="30">
         <v>201906</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A97" s="33"/>
       <c r="B97" s="34"/>
       <c r="C97" s="35"/>
@@ -7278,7 +7278,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A98" s="38">
         <v>201907</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="42"/>
       <c r="B99" s="43"/>
       <c r="C99" s="44"/>
@@ -7308,7 +7308,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A100" s="38">
         <v>201907</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A101" s="42"/>
       <c r="B101" s="43"/>
       <c r="C101" s="44"/>
@@ -7338,7 +7338,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="30">
         <v>201907</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A103" s="33"/>
       <c r="B103" s="34"/>
       <c r="C103" s="35"/>
@@ -7368,7 +7368,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A104" s="30">
         <v>201907</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="33"/>
       <c r="B105" s="34"/>
       <c r="C105" s="35"/>
@@ -7398,7 +7398,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="38">
         <v>201908</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="42"/>
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
@@ -7428,7 +7428,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="38">
         <v>201908</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="42"/>
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
@@ -7458,7 +7458,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A110" s="30">
         <v>201908</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="33"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -7488,7 +7488,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A112" s="30">
         <v>201908</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A113" s="33"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -7518,7 +7518,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A114" s="38">
         <v>201909</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A115" s="42"/>
       <c r="B115" s="43"/>
       <c r="C115" s="44"/>
@@ -7548,7 +7548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="38">
         <v>201909</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="42"/>
       <c r="B117" s="43"/>
       <c r="C117" s="44"/>
@@ -7578,7 +7578,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A118" s="30">
         <v>201909</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="33"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
@@ -7608,7 +7608,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A120" s="30">
         <v>201909</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="33"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
@@ -7638,7 +7638,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="38">
         <v>201910</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A123" s="42"/>
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
@@ -7668,7 +7668,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A124" s="38">
         <v>201910</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A125" s="42"/>
       <c r="B125" s="43"/>
       <c r="C125" s="44"/>
@@ -7698,7 +7698,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="38">
         <v>201910</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="42"/>
       <c r="B127" s="43"/>
       <c r="C127" s="44"/>
@@ -7728,7 +7728,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="38">
         <v>201910</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="42"/>
       <c r="B129" s="43"/>
       <c r="C129" s="44"/>
@@ -7758,7 +7758,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A130" s="30">
         <v>201911</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A131" s="33"/>
       <c r="B131" s="34"/>
       <c r="C131" s="35"/>
@@ -7788,7 +7788,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="30">
         <v>201911</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="33"/>
       <c r="B133" s="34"/>
       <c r="C133" s="35"/>
@@ -7818,7 +7818,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="30">
         <v>201911</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="33"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -7848,7 +7848,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="30">
         <v>201911</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="33"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -7878,7 +7878,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="75">
         <v>201912</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="77"/>
       <c r="B139" s="78"/>
       <c r="C139" s="79"/>
@@ -7908,7 +7908,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="A140" s="75">
         <v>201912</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="77"/>
       <c r="B141" s="78"/>
       <c r="C141" s="79"/>
@@ -7938,7 +7938,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="12" hidden="1" customHeight="1">
       <c r="A142" s="75">
         <v>201912</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="77"/>
       <c r="B143" s="78"/>
       <c r="C143" s="78"/>
@@ -7968,7 +7968,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="A144" s="75">
         <v>201912</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A145" s="77"/>
       <c r="B145" s="78"/>
       <c r="C145" s="78"/>
@@ -7996,7 +7996,7 @@
       <c r="E145" s="78"/>
       <c r="F145" s="65"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A146" s="30">
         <v>202001</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A147" s="71"/>
       <c r="B147" s="72"/>
       <c r="C147" s="73"/>
@@ -8024,7 +8024,7 @@
       <c r="E147" s="73"/>
       <c r="F147" s="74"/>
     </row>
-    <row r="148" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A148" s="30">
         <v>202001</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A149" s="71"/>
       <c r="B149" s="72"/>
       <c r="C149" s="73"/>
@@ -8054,7 +8054,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A150" s="30">
         <v>202001</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A151" s="71"/>
       <c r="B151" s="72"/>
       <c r="C151" s="72"/>
@@ -8084,7 +8084,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A152" s="30">
         <v>202001</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A153" s="71"/>
       <c r="B153" s="72"/>
       <c r="C153" s="72"/>
@@ -8114,7 +8114,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A154" s="57"/>
       <c r="B154" s="58"/>
       <c r="C154" s="58"/>
@@ -8122,7 +8122,7 @@
       <c r="E154" s="58"/>
       <c r="F154" s="59"/>
     </row>
-    <row r="155" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A155" s="60"/>
       <c r="B155" s="61"/>
       <c r="C155" s="61"/>
@@ -8130,7 +8130,7 @@
       <c r="E155" s="61"/>
       <c r="F155" s="62"/>
     </row>
-    <row r="156" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A156" s="30">
         <v>202002</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="71"/>
       <c r="B157" s="72"/>
       <c r="C157" s="73"/>
@@ -8160,7 +8160,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="30">
         <v>202002</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="71"/>
       <c r="B159" s="72"/>
       <c r="C159" s="73"/>
@@ -8190,7 +8190,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A160" s="30">
         <v>202002</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A161" s="71"/>
       <c r="B161" s="72"/>
       <c r="C161" s="72"/>
@@ -8220,7 +8220,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A162" s="30">
         <v>202002</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A163" s="71"/>
       <c r="B163" s="72"/>
       <c r="C163" s="72"/>
@@ -8250,7 +8250,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A164" s="30">
         <v>202003</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A165" s="71"/>
       <c r="B165" s="72"/>
       <c r="C165" s="73"/>
@@ -8280,7 +8280,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A166" s="30">
         <v>202003</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A167" s="71"/>
       <c r="B167" s="72"/>
       <c r="C167" s="73"/>
@@ -8310,7 +8310,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A168" s="30">
         <v>202003</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A169" s="71"/>
       <c r="B169" s="72"/>
       <c r="C169" s="72"/>
@@ -8340,7 +8340,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A170" s="30">
         <v>202003</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A171" s="71"/>
       <c r="B171" s="72"/>
       <c r="C171" s="72"/>
@@ -8370,7 +8370,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A172" s="30">
         <v>202004</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A173" s="71"/>
       <c r="B173" s="72"/>
       <c r="C173" s="73"/>
@@ -8400,7 +8400,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A174" s="30">
         <v>202004</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A175" s="71"/>
       <c r="B175" s="72"/>
       <c r="C175" s="73"/>
@@ -8430,7 +8430,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A176" s="30">
         <v>202004</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A177" s="71"/>
       <c r="B177" s="72"/>
       <c r="C177" s="72"/>
@@ -8460,7 +8460,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="30">
         <v>202004</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A179" s="71"/>
       <c r="B179" s="72"/>
       <c r="C179" s="72"/>
@@ -8490,7 +8490,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A180" s="57">
         <v>202005</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A181" s="87"/>
       <c r="B181" s="88"/>
       <c r="C181" s="89"/>
@@ -8520,7 +8520,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A182" s="57">
         <v>202005</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A183" s="87"/>
       <c r="B183" s="88"/>
       <c r="C183" s="89"/>
@@ -8550,7 +8550,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A184" s="57">
         <v>202005</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A185" s="87"/>
       <c r="B185" s="88"/>
       <c r="C185" s="88"/>
@@ -8580,7 +8580,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A186" s="57">
         <v>202005</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A187" s="87"/>
       <c r="B187" s="88"/>
       <c r="C187" s="88"/>
@@ -8610,7 +8610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A188" s="92">
         <v>202006</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A189" s="95"/>
       <c r="B189" s="96"/>
       <c r="C189" s="96"/>
@@ -8640,7 +8640,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A190" s="92">
         <v>202006</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A191" s="95"/>
       <c r="B191" s="96"/>
       <c r="C191" s="96"/>
@@ -8670,7 +8670,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A192" s="92">
         <v>202006</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A193" s="95"/>
       <c r="B193" s="96"/>
       <c r="C193" s="96"/>
@@ -8700,7 +8700,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A194" s="92">
         <v>202006</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A195" s="97"/>
       <c r="B195" s="98"/>
       <c r="C195" s="98"/>
@@ -8730,8 +8730,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="197" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="15.75" hidden="1" thickBot="1"/>
+    <row r="197" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A197" s="99">
         <v>202007</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A198" s="95"/>
       <c r="B198" s="96"/>
       <c r="C198" s="96"/>
@@ -8761,7 +8761,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A199" s="92">
         <v>202007</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A200" s="95"/>
       <c r="B200" s="96"/>
       <c r="C200" s="96"/>
@@ -8791,7 +8791,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A201" s="92">
         <v>202007</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A202" s="95"/>
       <c r="B202" s="96"/>
       <c r="C202" s="96"/>
@@ -8821,7 +8821,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A203" s="92">
         <v>20200</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A204" s="97"/>
       <c r="B204" s="98"/>
       <c r="C204" s="96"/>
@@ -8851,7 +8851,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A205" s="106">
         <v>202008</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A206" s="107"/>
       <c r="B206" s="108"/>
       <c r="C206" s="108"/>
@@ -8881,7 +8881,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A207" s="109">
         <v>202008</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A208" s="110"/>
       <c r="B208" s="108"/>
       <c r="C208" s="108"/>
@@ -8911,7 +8911,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A209" s="109">
         <v>202008</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A210" s="111"/>
       <c r="B210" s="108"/>
       <c r="C210" s="108"/>
@@ -8941,7 +8941,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A211" s="109">
         <v>202008</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A212" s="107"/>
       <c r="B212" s="108"/>
       <c r="C212" s="108"/>
@@ -8971,7 +8971,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A213" s="83">
         <v>202009</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A214" s="112"/>
       <c r="B214" s="113"/>
       <c r="C214" s="113"/>
@@ -9001,7 +9001,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A215" s="83">
         <v>202009</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A216" s="110"/>
       <c r="B216" s="113"/>
       <c r="C216" s="113"/>
@@ -9031,7 +9031,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A217" s="83">
         <v>202009</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A218" s="115"/>
       <c r="B218" s="113"/>
       <c r="C218" s="113"/>
@@ -9061,7 +9061,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A219" s="83">
         <v>202009</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A220" s="112"/>
       <c r="B220" s="113"/>
       <c r="C220" s="113"/>
@@ -9091,7 +9091,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="136" customFormat="1" ht="23.25" hidden="1" thickBot="1">
       <c r="A221" s="133">
         <v>202010</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="136" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A222" s="137"/>
       <c r="B222" s="138"/>
       <c r="C222" s="138"/>
@@ -9121,7 +9121,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" s="136" customFormat="1" ht="23.25" hidden="1" thickBot="1">
       <c r="A223" s="133">
         <v>202010</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" s="136" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A224" s="141"/>
       <c r="B224" s="138"/>
       <c r="C224" s="138"/>
@@ -9151,7 +9151,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" s="136" customFormat="1" ht="23.25" hidden="1" thickBot="1">
       <c r="A225" s="133">
         <v>202010</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" s="136" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A226" s="137"/>
       <c r="B226" s="138"/>
       <c r="C226" s="138"/>
@@ -9181,7 +9181,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" s="136" customFormat="1" ht="23.25" hidden="1" thickBot="1">
       <c r="A227" s="133">
         <v>202010</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="136" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" s="136" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A228" s="141"/>
       <c r="B228" s="138"/>
       <c r="C228" s="138"/>
@@ -9211,7 +9211,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A229" s="83">
         <v>202011</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A230" s="112"/>
       <c r="B230" s="113"/>
       <c r="C230" s="113"/>
@@ -9241,7 +9241,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A231" s="83">
         <v>202011</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A232" s="110"/>
       <c r="B232" s="113"/>
       <c r="C232" s="113"/>
@@ -9265,7 +9265,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="23.25" hidden="1" thickBot="1">
       <c r="A233" s="83">
         <v>202011</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A234" s="115"/>
       <c r="B234" s="113"/>
       <c r="C234" s="113"/>
@@ -9295,7 +9295,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A235" s="83">
         <v>202011</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A236" s="112"/>
       <c r="B236" s="113"/>
       <c r="C236" s="113"/>
@@ -9319,7 +9319,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A237" s="147">
         <v>202012</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A238" s="148"/>
       <c r="B238" s="148"/>
       <c r="C238" s="148"/>
@@ -9349,7 +9349,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A239" s="147">
         <v>202012</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A240" s="148"/>
       <c r="B240" s="148"/>
       <c r="C240" s="148"/>
@@ -9379,7 +9379,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A241" s="147">
         <v>202012</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A242" s="148"/>
       <c r="B242" s="148"/>
       <c r="C242" s="148"/>
@@ -9409,7 +9409,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A243" s="147">
         <v>202012</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A244" s="148"/>
       <c r="B244" s="148"/>
       <c r="C244" s="148"/>
@@ -9437,728 +9437,838 @@
       <c r="E244" s="148"/>
       <c r="F244" s="148"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="163">
+    <row r="245" spans="1:6">
+      <c r="A245" s="159">
         <v>202101</v>
       </c>
-      <c r="B245" s="165" t="s">
+      <c r="B245" s="161" t="s">
         <v>730</v>
       </c>
-      <c r="C245" s="165" t="s">
+      <c r="C245" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="165" t="s">
+      <c r="D245" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="E245" s="165" t="s">
+      <c r="E245" s="161" t="s">
         <v>445</v>
       </c>
       <c r="F245" s="145" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="164"/>
-      <c r="B246" s="166"/>
-      <c r="C246" s="166"/>
-      <c r="D246" s="166"/>
-      <c r="E246" s="166"/>
+    <row r="246" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A246" s="160"/>
+      <c r="B246" s="162"/>
+      <c r="C246" s="162"/>
+      <c r="D246" s="162"/>
+      <c r="E246" s="162"/>
       <c r="F246" s="146" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="163">
+    <row r="247" spans="1:6">
+      <c r="A247" s="159">
         <v>202101</v>
       </c>
-      <c r="B247" s="165" t="s">
+      <c r="B247" s="161" t="s">
         <v>731</v>
       </c>
-      <c r="C247" s="165" t="s">
+      <c r="C247" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="D247" s="165" t="s">
+      <c r="D247" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="E247" s="165" t="s">
+      <c r="E247" s="161" t="s">
         <v>738</v>
       </c>
       <c r="F247" s="145" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="164"/>
-      <c r="B248" s="166"/>
-      <c r="C248" s="166"/>
-      <c r="D248" s="166"/>
-      <c r="E248" s="166"/>
+    <row r="248" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A248" s="160"/>
+      <c r="B248" s="162"/>
+      <c r="C248" s="162"/>
+      <c r="D248" s="162"/>
+      <c r="E248" s="162"/>
       <c r="F248" s="146" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="163">
+    <row r="249" spans="1:6">
+      <c r="A249" s="159">
         <v>202101</v>
       </c>
-      <c r="B249" s="165" t="s">
+      <c r="B249" s="161" t="s">
         <v>732</v>
       </c>
-      <c r="C249" s="165" t="s">
+      <c r="C249" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="D249" s="165" t="s">
+      <c r="D249" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="E249" s="165" t="s">
+      <c r="E249" s="161" t="s">
         <v>445</v>
       </c>
       <c r="F249" s="145" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="164"/>
-      <c r="B250" s="166"/>
-      <c r="C250" s="166"/>
-      <c r="D250" s="166"/>
-      <c r="E250" s="166"/>
+    <row r="250" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A250" s="160"/>
+      <c r="B250" s="162"/>
+      <c r="C250" s="162"/>
+      <c r="D250" s="162"/>
+      <c r="E250" s="162"/>
       <c r="F250" s="146" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251" s="163">
+    <row r="251" spans="1:6">
+      <c r="A251" s="159">
         <v>202101</v>
       </c>
-      <c r="B251" s="165" t="s">
+      <c r="B251" s="161" t="s">
         <v>733</v>
       </c>
-      <c r="C251" s="165" t="s">
+      <c r="C251" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="D251" s="165" t="s">
+      <c r="D251" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="E251" s="165" t="s">
+      <c r="E251" s="161" t="s">
         <v>738</v>
       </c>
       <c r="F251" s="145" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="164"/>
-      <c r="B252" s="166"/>
-      <c r="C252" s="166"/>
-      <c r="D252" s="166"/>
-      <c r="E252" s="166"/>
+    <row r="252" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A252" s="160"/>
+      <c r="B252" s="162"/>
+      <c r="C252" s="162"/>
+      <c r="D252" s="162"/>
+      <c r="E252" s="162"/>
       <c r="F252" s="146" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="159">
+    <row r="253" spans="1:6" ht="15" customHeight="1">
+      <c r="A253" s="163">
         <v>202102</v>
       </c>
-      <c r="B253" s="161" t="s">
+      <c r="B253" s="165" t="s">
         <v>747</v>
       </c>
-      <c r="C253" s="161" t="s">
+      <c r="C253" s="165" t="s">
         <v>748</v>
       </c>
-      <c r="D253" s="161" t="s">
+      <c r="D253" s="165" t="s">
         <v>749</v>
       </c>
-      <c r="E253" s="161" t="s">
+      <c r="E253" s="165" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="94" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="160"/>
-      <c r="B254" s="162"/>
-      <c r="C254" s="162"/>
-      <c r="D254" s="162"/>
-      <c r="E254" s="162"/>
+    <row r="254" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A254" s="164"/>
+      <c r="B254" s="166"/>
+      <c r="C254" s="166"/>
+      <c r="D254" s="166"/>
+      <c r="E254" s="166"/>
       <c r="F254" s="74" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="159">
+    <row r="255" spans="1:6" ht="15" customHeight="1">
+      <c r="A255" s="163">
         <v>202102</v>
       </c>
-      <c r="B255" s="161" t="s">
+      <c r="B255" s="165" t="s">
         <v>753</v>
       </c>
-      <c r="C255" s="161" t="s">
+      <c r="C255" s="165" t="s">
         <v>754</v>
       </c>
-      <c r="D255" s="161" t="s">
+      <c r="D255" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="E255" s="161" t="s">
+      <c r="E255" s="165" t="s">
         <v>756</v>
       </c>
       <c r="F255" s="143" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="160"/>
-      <c r="B256" s="162"/>
-      <c r="C256" s="162"/>
-      <c r="D256" s="162"/>
-      <c r="E256" s="162"/>
+    <row r="256" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A256" s="164"/>
+      <c r="B256" s="166"/>
+      <c r="C256" s="166"/>
+      <c r="D256" s="166"/>
+      <c r="E256" s="166"/>
       <c r="F256" s="74" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="159">
+    <row r="257" spans="1:6" ht="15" customHeight="1">
+      <c r="A257" s="163">
         <v>202102</v>
       </c>
-      <c r="B257" s="161" t="s">
+      <c r="B257" s="165" t="s">
         <v>759</v>
       </c>
-      <c r="C257" s="161" t="s">
+      <c r="C257" s="165" t="s">
         <v>748</v>
       </c>
-      <c r="D257" s="161" t="s">
+      <c r="D257" s="165" t="s">
         <v>749</v>
       </c>
-      <c r="E257" s="161" t="s">
+      <c r="E257" s="165" t="s">
         <v>750</v>
       </c>
       <c r="F257" s="143" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="160"/>
-      <c r="B258" s="162"/>
-      <c r="C258" s="162"/>
-      <c r="D258" s="162"/>
-      <c r="E258" s="162"/>
+    <row r="258" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A258" s="164"/>
+      <c r="B258" s="166"/>
+      <c r="C258" s="166"/>
+      <c r="D258" s="166"/>
+      <c r="E258" s="166"/>
       <c r="F258" s="144" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="159">
+    <row r="259" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A259" s="163">
         <v>202102</v>
       </c>
-      <c r="B259" s="161" t="s">
+      <c r="B259" s="165" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="161" t="s">
+      <c r="C259" s="165" t="s">
         <v>754</v>
       </c>
-      <c r="D259" s="161" t="s">
+      <c r="D259" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="E259" s="161" t="s">
+      <c r="E259" s="165" t="s">
         <v>756</v>
       </c>
       <c r="F259" s="143" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="160"/>
-      <c r="B260" s="162"/>
-      <c r="C260" s="162"/>
-      <c r="D260" s="162"/>
-      <c r="E260" s="162"/>
+    <row r="260" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A260" s="164"/>
+      <c r="B260" s="166"/>
+      <c r="C260" s="166"/>
+      <c r="D260" s="166"/>
+      <c r="E260" s="166"/>
       <c r="F260" s="74" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A261" s="163">
+    <row r="261" spans="1:6">
+      <c r="A261" s="159">
         <v>202103</v>
       </c>
-      <c r="B261" s="165" t="s">
+      <c r="B261" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="165" t="s">
+      <c r="C261" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="165" t="s">
+      <c r="D261" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E261" s="165" t="s">
+      <c r="E261" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F261" s="145" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="164"/>
-      <c r="B262" s="166"/>
-      <c r="C262" s="166"/>
-      <c r="D262" s="166"/>
-      <c r="E262" s="166"/>
+    <row r="262" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A262" s="160"/>
+      <c r="B262" s="162"/>
+      <c r="C262" s="162"/>
+      <c r="D262" s="162"/>
+      <c r="E262" s="162"/>
       <c r="F262" s="146" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A263" s="163">
+    <row r="263" spans="1:6">
+      <c r="A263" s="159">
         <v>202103</v>
       </c>
-      <c r="B263" s="165" t="s">
+      <c r="B263" s="161" t="s">
         <v>766</v>
       </c>
-      <c r="C263" s="165" t="s">
+      <c r="C263" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D263" s="165" t="s">
+      <c r="D263" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E263" s="165" t="s">
+      <c r="E263" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F263" s="145" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="164"/>
-      <c r="B264" s="166"/>
-      <c r="C264" s="166"/>
-      <c r="D264" s="166"/>
-      <c r="E264" s="166"/>
+    <row r="264" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A264" s="160"/>
+      <c r="B264" s="162"/>
+      <c r="C264" s="162"/>
+      <c r="D264" s="162"/>
+      <c r="E264" s="162"/>
       <c r="F264" s="146" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A265" s="163">
+    <row r="265" spans="1:6">
+      <c r="A265" s="159">
         <v>202103</v>
       </c>
-      <c r="B265" s="165" t="s">
+      <c r="B265" s="161" t="s">
         <v>767</v>
       </c>
-      <c r="C265" s="165" t="s">
+      <c r="C265" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D265" s="165" t="s">
+      <c r="D265" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="165" t="s">
+      <c r="E265" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F265" s="145" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="164"/>
-      <c r="B266" s="166"/>
-      <c r="C266" s="166"/>
-      <c r="D266" s="166"/>
-      <c r="E266" s="166"/>
+    <row r="266" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A266" s="160"/>
+      <c r="B266" s="162"/>
+      <c r="C266" s="162"/>
+      <c r="D266" s="162"/>
+      <c r="E266" s="162"/>
       <c r="F266" s="146" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A267" s="163">
+    <row r="267" spans="1:6">
+      <c r="A267" s="159">
         <v>202103</v>
       </c>
-      <c r="B267" s="165" t="s">
+      <c r="B267" s="161" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="165" t="s">
+      <c r="C267" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D267" s="165" t="s">
+      <c r="D267" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E267" s="165" t="s">
+      <c r="E267" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F267" s="145" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="164"/>
-      <c r="B268" s="166"/>
-      <c r="C268" s="166"/>
-      <c r="D268" s="166"/>
-      <c r="E268" s="166"/>
+    <row r="268" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A268" s="160"/>
+      <c r="B268" s="162"/>
+      <c r="C268" s="162"/>
+      <c r="D268" s="162"/>
+      <c r="E268" s="162"/>
       <c r="F268" s="146" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A269" s="159">
+    <row r="269" spans="1:6">
+      <c r="A269" s="163">
         <v>202104</v>
       </c>
-      <c r="B269" s="161" t="s">
+      <c r="B269" s="165" t="s">
         <v>783</v>
       </c>
-      <c r="C269" s="161" t="s">
+      <c r="C269" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D269" s="161" t="s">
+      <c r="D269" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E269" s="161" t="s">
+      <c r="E269" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F269" s="94" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="160"/>
-      <c r="B270" s="162"/>
-      <c r="C270" s="162"/>
-      <c r="D270" s="162"/>
-      <c r="E270" s="162"/>
+    <row r="270" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A270" s="164"/>
+      <c r="B270" s="166"/>
+      <c r="C270" s="166"/>
+      <c r="D270" s="166"/>
+      <c r="E270" s="166"/>
       <c r="F270" s="74" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="159">
+    <row r="271" spans="1:6" ht="15" customHeight="1">
+      <c r="A271" s="163">
         <v>202104</v>
       </c>
-      <c r="B271" s="161" t="s">
+      <c r="B271" s="165" t="s">
         <v>789</v>
       </c>
-      <c r="C271" s="161" t="s">
+      <c r="C271" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D271" s="161" t="s">
+      <c r="D271" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E271" s="161" t="s">
+      <c r="E271" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F271" s="143" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="160"/>
-      <c r="B272" s="162"/>
-      <c r="C272" s="162"/>
-      <c r="D272" s="162"/>
-      <c r="E272" s="162"/>
+    <row r="272" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A272" s="164"/>
+      <c r="B272" s="166"/>
+      <c r="C272" s="166"/>
+      <c r="D272" s="166"/>
+      <c r="E272" s="166"/>
       <c r="F272" s="74" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A273" s="159">
+    <row r="273" spans="1:6">
+      <c r="A273" s="163">
         <v>202104</v>
       </c>
-      <c r="B273" s="161" t="s">
+      <c r="B273" s="165" t="s">
         <v>795</v>
       </c>
-      <c r="C273" s="161" t="s">
+      <c r="C273" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D273" s="161" t="s">
+      <c r="D273" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E273" s="161" t="s">
+      <c r="E273" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F273" s="143" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="160"/>
-      <c r="B274" s="162"/>
-      <c r="C274" s="162"/>
-      <c r="D274" s="162"/>
-      <c r="E274" s="162"/>
+    <row r="274" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A274" s="164"/>
+      <c r="B274" s="166"/>
+      <c r="C274" s="166"/>
+      <c r="D274" s="166"/>
+      <c r="E274" s="166"/>
       <c r="F274" s="144" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="159">
+    <row r="275" spans="1:6" ht="15" customHeight="1">
+      <c r="A275" s="163">
         <v>202104</v>
       </c>
-      <c r="B275" s="161" t="s">
+      <c r="B275" s="165" t="s">
         <v>798</v>
       </c>
-      <c r="C275" s="161" t="s">
+      <c r="C275" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D275" s="161" t="s">
+      <c r="D275" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E275" s="161" t="s">
+      <c r="E275" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F275" s="143" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="160"/>
-      <c r="B276" s="162"/>
-      <c r="C276" s="162"/>
-      <c r="D276" s="162"/>
-      <c r="E276" s="162"/>
+    <row r="276" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A276" s="164"/>
+      <c r="B276" s="166"/>
+      <c r="C276" s="166"/>
+      <c r="D276" s="166"/>
+      <c r="E276" s="166"/>
       <c r="F276" s="74" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="163">
+    <row r="277" spans="1:6" ht="15" customHeight="1">
+      <c r="A277" s="159">
         <v>202105</v>
       </c>
-      <c r="B277" s="165" t="s">
+      <c r="B277" s="161" t="s">
         <v>818</v>
       </c>
-      <c r="C277" s="165" t="s">
+      <c r="C277" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D277" s="165" t="s">
+      <c r="D277" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E277" s="165" t="s">
+      <c r="E277" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F277" s="145" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="164"/>
-      <c r="B278" s="166"/>
-      <c r="C278" s="166"/>
-      <c r="D278" s="166"/>
-      <c r="E278" s="166"/>
+    <row r="278" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A278" s="160"/>
+      <c r="B278" s="162"/>
+      <c r="C278" s="162"/>
+      <c r="D278" s="162"/>
+      <c r="E278" s="162"/>
       <c r="F278" s="146" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="163">
+    <row r="279" spans="1:6" ht="15" customHeight="1">
+      <c r="A279" s="159">
         <v>202105</v>
       </c>
-      <c r="B279" s="165" t="s">
+      <c r="B279" s="161" t="s">
         <v>824</v>
       </c>
-      <c r="C279" s="165" t="s">
+      <c r="C279" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D279" s="165" t="s">
+      <c r="D279" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E279" s="165" t="s">
+      <c r="E279" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F279" s="145" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="164"/>
-      <c r="B280" s="166"/>
-      <c r="C280" s="166"/>
-      <c r="D280" s="166"/>
-      <c r="E280" s="166"/>
+    <row r="280" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A280" s="160"/>
+      <c r="B280" s="162"/>
+      <c r="C280" s="162"/>
+      <c r="D280" s="162"/>
+      <c r="E280" s="162"/>
       <c r="F280" s="146" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="163">
+    <row r="281" spans="1:6" ht="15" customHeight="1">
+      <c r="A281" s="159">
         <v>202105</v>
       </c>
-      <c r="B281" s="165" t="s">
+      <c r="B281" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="C281" s="165" t="s">
+      <c r="C281" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D281" s="165" t="s">
+      <c r="D281" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E281" s="165" t="s">
+      <c r="E281" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F281" s="145" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="164"/>
-      <c r="B282" s="166"/>
-      <c r="C282" s="166"/>
-      <c r="D282" s="166"/>
-      <c r="E282" s="166"/>
+    <row r="282" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A282" s="160"/>
+      <c r="B282" s="162"/>
+      <c r="C282" s="162"/>
+      <c r="D282" s="162"/>
+      <c r="E282" s="162"/>
       <c r="F282" s="146" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="163">
+    <row r="283" spans="1:6" ht="15" customHeight="1">
+      <c r="A283" s="159">
         <v>202105</v>
       </c>
-      <c r="B283" s="165" t="s">
+      <c r="B283" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="C283" s="165" t="s">
+      <c r="C283" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D283" s="165" t="s">
+      <c r="D283" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E283" s="165" t="s">
+      <c r="E283" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F283" s="145" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="164"/>
-      <c r="B284" s="166"/>
-      <c r="C284" s="166"/>
-      <c r="D284" s="166"/>
-      <c r="E284" s="166"/>
+    <row r="284" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A284" s="160"/>
+      <c r="B284" s="162"/>
+      <c r="C284" s="162"/>
+      <c r="D284" s="162"/>
+      <c r="E284" s="162"/>
       <c r="F284" s="146" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="159">
+    <row r="285" spans="1:6" ht="15" customHeight="1">
+      <c r="A285" s="163">
         <v>202106</v>
       </c>
-      <c r="B285" s="161" t="s">
+      <c r="B285" s="165" t="s">
         <v>809</v>
       </c>
-      <c r="C285" s="161" t="s">
+      <c r="C285" s="165" t="s">
         <v>815</v>
       </c>
-      <c r="D285" s="161" t="s">
+      <c r="D285" s="165" t="s">
         <v>816</v>
       </c>
-      <c r="E285" s="161" t="s">
+      <c r="E285" s="165" t="s">
         <v>817</v>
       </c>
       <c r="F285" s="94" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="160"/>
-      <c r="B286" s="162"/>
-      <c r="C286" s="162"/>
-      <c r="D286" s="162"/>
-      <c r="E286" s="162"/>
+    <row r="286" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A286" s="164"/>
+      <c r="B286" s="166"/>
+      <c r="C286" s="166"/>
+      <c r="D286" s="166"/>
+      <c r="E286" s="166"/>
       <c r="F286" s="74" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="159">
+    <row r="287" spans="1:6" ht="15" customHeight="1">
+      <c r="A287" s="163">
         <v>202106</v>
       </c>
-      <c r="B287" s="161" t="s">
+      <c r="B287" s="165" t="s">
         <v>810</v>
       </c>
-      <c r="C287" s="161" t="s">
+      <c r="C287" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="D287" s="161" t="s">
+      <c r="D287" s="165" t="s">
         <v>813</v>
       </c>
-      <c r="E287" s="161" t="s">
+      <c r="E287" s="165" t="s">
         <v>814</v>
       </c>
       <c r="F287" s="143" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="160"/>
-      <c r="B288" s="162"/>
-      <c r="C288" s="162"/>
-      <c r="D288" s="162"/>
-      <c r="E288" s="162"/>
+    <row r="288" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A288" s="164"/>
+      <c r="B288" s="166"/>
+      <c r="C288" s="166"/>
+      <c r="D288" s="166"/>
+      <c r="E288" s="166"/>
       <c r="F288" s="74" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="159">
+    <row r="289" spans="1:6" ht="15" customHeight="1">
+      <c r="A289" s="163">
         <v>202106</v>
       </c>
-      <c r="B289" s="161" t="s">
+      <c r="B289" s="165" t="s">
         <v>811</v>
       </c>
-      <c r="C289" s="161" t="s">
+      <c r="C289" s="165" t="s">
         <v>815</v>
       </c>
-      <c r="D289" s="161" t="s">
+      <c r="D289" s="165" t="s">
         <v>816</v>
       </c>
-      <c r="E289" s="161" t="s">
+      <c r="E289" s="165" t="s">
         <v>817</v>
       </c>
       <c r="F289" s="143" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="160"/>
-      <c r="B290" s="162"/>
-      <c r="C290" s="162"/>
-      <c r="D290" s="162"/>
-      <c r="E290" s="162"/>
+    <row r="290" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A290" s="164"/>
+      <c r="B290" s="166"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+      <c r="E290" s="166"/>
       <c r="F290" s="144" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="159">
+    <row r="291" spans="1:6" ht="15" customHeight="1">
+      <c r="A291" s="163">
         <v>202106</v>
       </c>
-      <c r="B291" s="161" t="s">
+      <c r="B291" s="165" t="s">
         <v>812</v>
       </c>
-      <c r="C291" s="161" t="s">
+      <c r="C291" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="D291" s="161" t="s">
+      <c r="D291" s="165" t="s">
         <v>813</v>
       </c>
-      <c r="E291" s="161" t="s">
+      <c r="E291" s="165" t="s">
         <v>814</v>
       </c>
       <c r="F291" s="143" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="160"/>
-      <c r="B292" s="162"/>
-      <c r="C292" s="162"/>
-      <c r="D292" s="162"/>
-      <c r="E292" s="162"/>
+    <row r="292" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A292" s="164"/>
+      <c r="B292" s="166"/>
+      <c r="C292" s="166"/>
+      <c r="D292" s="166"/>
+      <c r="E292" s="166"/>
       <c r="F292" s="74" t="s">
         <v>808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
     <mergeCell ref="A289:A290"/>
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="C289:C290"/>
@@ -10169,116 +10279,6 @@
     <mergeCell ref="C291:C292"/>
     <mergeCell ref="D291:D292"/>
     <mergeCell ref="E291:E292"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="E261:E262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="E257:E258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="E247:E248"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10294,12 +10294,12 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="149" t="s">
         <v>842</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="149" t="s">
         <v>841</v>
       </c>
@@ -10329,21 +10329,21 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:F33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -10363,367 +10363,367 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="163">
+    <row r="2" spans="1:6">
+      <c r="A2" s="159">
         <v>202103</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F2" s="145" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="160"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="146" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="163">
+    <row r="4" spans="1:6">
+      <c r="A4" s="159">
         <v>202103</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="161" t="s">
         <v>766</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F4" s="145" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="160"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="146" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="163">
+    <row r="6" spans="1:6">
+      <c r="A6" s="159">
         <v>202103</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="161" t="s">
         <v>767</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F6" s="145" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="164"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="160"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="146" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="163">
+    <row r="8" spans="1:6">
+      <c r="A8" s="159">
         <v>202103</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="161" t="s">
         <v>768</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E8" s="165" t="s">
+      <c r="E8" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F8" s="145" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="164"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="160"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
       <c r="F9" s="146" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="159">
+    <row r="10" spans="1:6">
+      <c r="A10" s="163">
         <v>202104</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="165" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F10" s="94" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="164"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="74" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="159">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="163">
         <v>202104</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="165" t="s">
         <v>789</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F12" s="143" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="164"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="74" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="159">
+    <row r="14" spans="1:6">
+      <c r="A14" s="163">
         <v>202104</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="165" t="s">
         <v>795</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F14" s="143" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="164"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="144" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="159">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="163">
         <v>202104</v>
       </c>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="165" t="s">
         <v>798</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F16" s="143" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="164"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="74" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="163">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="159">
         <v>202105</v>
       </c>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="161" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="165" t="s">
+      <c r="C18" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D18" s="165" t="s">
+      <c r="D18" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F18" s="145" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="164"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="160"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
       <c r="F19" s="146" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="163">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="159">
         <v>202105</v>
       </c>
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="161" t="s">
         <v>824</v>
       </c>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D20" s="165" t="s">
+      <c r="D20" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E20" s="165" t="s">
+      <c r="E20" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F20" s="145" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="164"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="160"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="146" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="163">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="159">
         <v>202105</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="C22" s="165" t="s">
+      <c r="C22" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E22" s="165" t="s">
+      <c r="E22" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F22" s="145" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="164"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="160"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="146" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="163">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="A24" s="159">
         <v>202105</v>
       </c>
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E24" s="165" t="s">
+      <c r="E24" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F24" s="145" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="164"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="160"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
       <c r="F25" s="146" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="155">
         <v>202106</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="156"/>
       <c r="B27" s="158"/>
       <c r="C27" s="158"/>
@@ -10753,7 +10753,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="155">
         <v>202106</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="156"/>
       <c r="B29" s="158"/>
       <c r="C29" s="158"/>
@@ -10783,7 +10783,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="155">
         <v>202106</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="A31" s="156"/>
       <c r="B31" s="158"/>
       <c r="C31" s="158"/>
@@ -10813,7 +10813,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="155">
         <v>202106</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="156"/>
       <c r="B33" s="158"/>
       <c r="C33" s="158"/>
@@ -10845,66 +10845,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10920,15 +10920,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="149" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="149" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="149" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="149" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="149" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="149" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="154" t="s">
         <v>899</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="119" t="s">
         <v>902</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="119" t="s">
         <v>905</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="119" t="s">
         <v>908</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="119" t="s">
         <v>911</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="119" t="s">
         <v>913</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="119" t="s">
         <v>915</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="119" t="s">
         <v>917</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="119" t="s">
         <v>918</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="119" t="s">
         <v>921</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="119" t="s">
         <v>924</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="119" t="s">
         <v>927</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="119" t="s">
         <v>929</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="119" t="s">
         <v>932</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="119" t="s">
         <v>935</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="119" t="s">
         <v>938</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="119" t="s">
         <v>941</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="119" t="s">
         <v>944</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="119" t="s">
         <v>947</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="119" t="s">
         <v>950</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="119" t="s">
         <v>953</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="119" t="s">
         <v>956</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="119" t="s">
         <v>959</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="119" t="s">
         <v>962</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="119" t="s">
         <v>965</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="119" t="s">
         <v>968</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="119" t="s">
         <v>971</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="119" t="s">
         <v>974</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="119" t="s">
         <v>977</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="119" t="s">
         <v>980</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="119" t="s">
         <v>982</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="119" t="s">
         <v>984</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="119" t="s">
         <v>986</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="119" t="s">
         <v>988</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="119" t="s">
         <v>991</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="119" t="s">
         <v>994</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="119" t="s">
         <v>997</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="119" t="s">
         <v>999</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="119" t="s">
         <v>1001</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="119" t="s">
         <v>1003</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="119" t="s">
         <v>1006</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="119" t="s">
         <v>1009</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="119" t="s">
         <v>1012</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="119" t="s">
         <v>1015</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="119" t="s">
         <v>1018</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="119" t="s">
         <v>1021</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="119" t="s">
         <v>1023</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="119" t="s">
         <v>1025</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="119" t="s">
         <v>1027</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="119" t="s">
         <v>1029</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="119" t="s">
         <v>1032</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="119" t="s">
         <v>1035</v>
       </c>
@@ -11515,19 +11515,19 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="111.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="151" t="s">
         <v>856</v>
       </c>
       <c r="B1" s="151"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>857</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>859</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>861</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>863</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>865</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>867</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>869</v>
       </c>
@@ -11583,13 +11583,13 @@
         <v>870</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="151" t="s">
         <v>871</v>
       </c>
       <c r="B9" s="153"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>872</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>874</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>876</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>878</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>880</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>882</v>
       </c>
@@ -11637,13 +11637,13 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="151" t="s">
         <v>884</v>
       </c>
       <c r="B16" s="151"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>887</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>886</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>889</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>891</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>893</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>895</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>897</v>
       </c>
@@ -11699,10 +11699,10 @@
         <v>898</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="B24" s="150"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="B25" s="150"/>
     </row>
   </sheetData>
@@ -11729,15 +11729,15 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1038</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>110</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>110</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>120</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>120</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>130</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>130</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>220</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>220</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>230</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>230</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>240</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>250</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>250</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>260</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>260</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>300</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>300</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>420</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>420</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>430</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>430</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>440</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>440</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>450</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>450</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>460</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>460</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>500</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>500</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>620</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>620</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>630</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>630</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>640</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>640</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>720</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>720</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>730</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>730</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>740</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>740</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>130</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>130</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>820</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>820</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>840</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>840</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>650</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>830</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>800</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>830</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>850</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>850</v>
       </c>
@@ -12470,18 +12470,18 @@
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="45.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="4">
         <v>201801</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="4">
         <v>201802</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="4">
         <v>201803</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="4">
         <v>201804</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="4">
         <v>201805</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="4">
         <v>201806</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="4">
         <v>201807</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="4">
         <v>201808</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="4">
         <v>201809</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="4">
         <v>201810</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="4">
         <v>201811</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="46">
         <v>201812</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="46">
         <v>201901</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="46">
         <v>201902</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="46">
         <v>201903</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="9">
         <v>201904</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="46">
         <v>201905</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="9">
         <v>201906</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="9">
         <v>201907</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="9">
         <v>201908</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="9">
         <v>201909</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="9">
         <v>201910</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="9">
         <v>201911</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="9">
         <v>201912</v>
       </c>
@@ -13077,16 +13077,16 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="B1" s="127" t="s">
         <v>560</v>
       </c>
@@ -13113,8 +13113,8 @@
         <v>640</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="170">
+    <row r="2" spans="1:10" hidden="1">
+      <c r="B2" s="167">
         <v>2.75</v>
       </c>
       <c r="C2" s="130">
@@ -13130,8 +13130,8 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="170"/>
+    <row r="3" spans="1:10" hidden="1">
+      <c r="B3" s="167"/>
       <c r="C3" s="130" t="s">
         <v>563</v>
       </c>
@@ -13145,8 +13145,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="170">
+    <row r="4" spans="1:10" hidden="1">
+      <c r="B4" s="167">
         <v>2.76</v>
       </c>
       <c r="C4" s="130">
@@ -13164,8 +13164,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="170"/>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="B5" s="167"/>
       <c r="C5" s="130" t="s">
         <v>565</v>
       </c>
@@ -13181,8 +13181,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="170">
+    <row r="6" spans="1:10" hidden="1">
+      <c r="B6" s="167">
         <v>2.77</v>
       </c>
       <c r="C6" s="130">
@@ -13200,8 +13200,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="170"/>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="B7" s="167"/>
       <c r="C7" s="130" t="s">
         <v>567</v>
       </c>
@@ -13217,8 +13217,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="170">
+    <row r="8" spans="1:10" hidden="1">
+      <c r="B8" s="167">
         <v>2.78</v>
       </c>
       <c r="C8" s="130">
@@ -13236,8 +13236,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="170"/>
+    <row r="9" spans="1:10" hidden="1">
+      <c r="B9" s="167"/>
       <c r="C9" s="130" t="s">
         <v>569</v>
       </c>
@@ -13253,8 +13253,8 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="170">
+    <row r="10" spans="1:10" hidden="1">
+      <c r="B10" s="167">
         <v>2.79</v>
       </c>
       <c r="C10" s="130">
@@ -13272,8 +13272,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="170"/>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="B11" s="167"/>
       <c r="C11" s="130" t="s">
         <v>571</v>
       </c>
@@ -13289,8 +13289,8 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="169" t="s">
+    <row r="12" spans="1:10">
+      <c r="B12" s="170" t="s">
         <v>530</v>
       </c>
       <c r="C12" s="130">
@@ -13303,13 +13303,13 @@
         <v>7.71</v>
       </c>
       <c r="F12" s="129"/>
-      <c r="G12" s="169"/>
+      <c r="G12" s="170"/>
       <c r="H12" s="130"/>
       <c r="I12" s="132"/>
       <c r="J12" s="131"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="170"/>
+    <row r="13" spans="1:10">
+      <c r="B13" s="167"/>
       <c r="C13" s="130" t="s">
         <v>573</v>
       </c>
@@ -13320,16 +13320,16 @@
         <v>573</v>
       </c>
       <c r="F13" s="129"/>
-      <c r="G13" s="170"/>
+      <c r="G13" s="167"/>
       <c r="H13" s="130"/>
       <c r="I13" s="130"/>
       <c r="J13" s="131"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="168" t="s">
         <v>641</v>
       </c>
       <c r="C14" s="122" t="s">
@@ -13342,7 +13342,7 @@
         <v>672</v>
       </c>
       <c r="F14" s="123"/>
-      <c r="G14" s="167" t="s">
+      <c r="G14" s="168" t="s">
         <v>678</v>
       </c>
       <c r="H14" s="122" t="s">
@@ -13355,8 +13355,8 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="168"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="169"/>
       <c r="C15" s="91" t="s">
         <v>651</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>651</v>
       </c>
       <c r="F15" s="124"/>
-      <c r="G15" s="168"/>
+      <c r="G15" s="169"/>
       <c r="H15" s="91" t="s">
         <v>691</v>
       </c>
@@ -13378,11 +13378,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="170" t="s">
         <v>642</v>
       </c>
       <c r="C16" s="117" t="s">
@@ -13395,7 +13395,7 @@
         <v>674</v>
       </c>
       <c r="F16" s="123"/>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="170" t="s">
         <v>679</v>
       </c>
       <c r="H16" s="117" t="s">
@@ -13408,8 +13408,8 @@
         <v>688</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="170"/>
+    <row r="17" spans="1:10">
+      <c r="B17" s="167"/>
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>652</v>
       </c>
       <c r="F17" s="124"/>
-      <c r="G17" s="170"/>
+      <c r="G17" s="167"/>
       <c r="H17" s="1" t="s">
         <v>692</v>
       </c>
@@ -13431,11 +13431,11 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>713</v>
       </c>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="168" t="s">
         <v>643</v>
       </c>
       <c r="C18" s="120">
@@ -13448,7 +13448,7 @@
         <v>7.7699999999999987</v>
       </c>
       <c r="F18" s="125"/>
-      <c r="G18" s="167" t="s">
+      <c r="G18" s="168" t="s">
         <v>680</v>
       </c>
       <c r="H18" s="122" t="s">
@@ -13461,8 +13461,8 @@
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="168"/>
+    <row r="19" spans="1:10">
+      <c r="B19" s="169"/>
       <c r="C19" s="121" t="s">
         <v>653</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>653</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="G19" s="168"/>
+      <c r="G19" s="169"/>
       <c r="H19" s="91" t="s">
         <v>693</v>
       </c>
@@ -13484,8 +13484,8 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="169" t="s">
+    <row r="20" spans="1:10">
+      <c r="B20" s="170" t="s">
         <v>644</v>
       </c>
       <c r="C20" s="118">
@@ -13498,7 +13498,7 @@
         <v>7.7899999999999983</v>
       </c>
       <c r="F20" s="125"/>
-      <c r="G20" s="169" t="s">
+      <c r="G20" s="170" t="s">
         <v>681</v>
       </c>
       <c r="H20" s="117" t="s">
@@ -13511,8 +13511,8 @@
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="170"/>
+    <row r="21" spans="1:10">
+      <c r="B21" s="167"/>
       <c r="C21" s="119" t="s">
         <v>654</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>654</v>
       </c>
       <c r="F21" s="126"/>
-      <c r="G21" s="170"/>
+      <c r="G21" s="167"/>
       <c r="H21" s="1" t="s">
         <v>694</v>
       </c>
@@ -13534,8 +13534,8 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="167" t="s">
+    <row r="22" spans="1:10">
+      <c r="B22" s="168" t="s">
         <v>645</v>
       </c>
       <c r="C22" s="120">
@@ -13548,15 +13548,15 @@
         <v>7.8099999999999978</v>
       </c>
       <c r="F22" s="125"/>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="168" t="s">
         <v>682</v>
       </c>
       <c r="H22" s="122"/>
       <c r="I22" s="122"/>
       <c r="J22" s="122"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="168"/>
+    <row r="23" spans="1:10">
+      <c r="B23" s="169"/>
       <c r="C23" s="121" t="s">
         <v>655</v>
       </c>
@@ -13567,13 +13567,13 @@
         <v>655</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="168"/>
+      <c r="G23" s="169"/>
       <c r="H23" s="91"/>
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="169" t="s">
+    <row r="24" spans="1:10">
+      <c r="B24" s="170" t="s">
         <v>646</v>
       </c>
       <c r="C24" s="118">
@@ -13586,15 +13586,15 @@
         <v>7.8299999999999974</v>
       </c>
       <c r="F24" s="125"/>
-      <c r="G24" s="169" t="s">
+      <c r="G24" s="170" t="s">
         <v>683</v>
       </c>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
       <c r="J24" s="117"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="170"/>
+    <row r="25" spans="1:10">
+      <c r="B25" s="167"/>
       <c r="C25" s="119" t="s">
         <v>656</v>
       </c>
@@ -13605,13 +13605,13 @@
         <v>656</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="170"/>
+      <c r="G25" s="167"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="167" t="s">
+    <row r="26" spans="1:10">
+      <c r="B26" s="168" t="s">
         <v>647</v>
       </c>
       <c r="C26" s="120">
@@ -13624,15 +13624,15 @@
         <v>7.849999999999997</v>
       </c>
       <c r="F26" s="125"/>
-      <c r="G26" s="167" t="s">
+      <c r="G26" s="168" t="s">
         <v>684</v>
       </c>
       <c r="H26" s="122"/>
       <c r="I26" s="122"/>
       <c r="J26" s="122"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="168"/>
+    <row r="27" spans="1:10">
+      <c r="B27" s="169"/>
       <c r="C27" s="121" t="s">
         <v>657</v>
       </c>
@@ -13643,13 +13643,13 @@
         <v>657</v>
       </c>
       <c r="F27" s="126"/>
-      <c r="G27" s="168"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="91"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="169" t="s">
+    <row r="28" spans="1:10">
+      <c r="B28" s="170" t="s">
         <v>648</v>
       </c>
       <c r="C28" s="118">
@@ -13662,15 +13662,15 @@
         <v>7.8699999999999966</v>
       </c>
       <c r="F28" s="125"/>
-      <c r="G28" s="169" t="s">
+      <c r="G28" s="170" t="s">
         <v>685</v>
       </c>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
       <c r="J28" s="117"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="170"/>
+    <row r="29" spans="1:10">
+      <c r="B29" s="167"/>
       <c r="C29" s="119" t="s">
         <v>658</v>
       </c>
@@ -13681,13 +13681,13 @@
         <v>658</v>
       </c>
       <c r="F29" s="126"/>
-      <c r="G29" s="170"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="167" t="s">
+    <row r="30" spans="1:10">
+      <c r="B30" s="168" t="s">
         <v>649</v>
       </c>
       <c r="C30" s="120">
@@ -13700,15 +13700,15 @@
         <v>7.8899999999999961</v>
       </c>
       <c r="F30" s="125"/>
-      <c r="G30" s="167" t="s">
+      <c r="G30" s="168" t="s">
         <v>686</v>
       </c>
       <c r="H30" s="122"/>
       <c r="I30" s="122"/>
       <c r="J30" s="122"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="168"/>
+    <row r="31" spans="1:10">
+      <c r="B31" s="169"/>
       <c r="C31" s="121" t="s">
         <v>659</v>
       </c>
@@ -13719,13 +13719,13 @@
         <v>659</v>
       </c>
       <c r="F31" s="126"/>
-      <c r="G31" s="168"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="169" t="s">
+    <row r="32" spans="1:10">
+      <c r="B32" s="170" t="s">
         <v>650</v>
       </c>
       <c r="C32" s="118">
@@ -13738,13 +13738,13 @@
         <v>7.9099999999999957</v>
       </c>
       <c r="F32" s="125"/>
-      <c r="G32" s="169"/>
+      <c r="G32" s="170"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
       <c r="J32" s="117"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="170"/>
+    <row r="33" spans="2:10">
+      <c r="B33" s="167"/>
       <c r="C33" s="119" t="s">
         <v>660</v>
       </c>
@@ -13755,18 +13755,19 @@
         <v>660</v>
       </c>
       <c r="F33" s="126"/>
-      <c r="G33" s="170"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
@@ -13783,12 +13784,11 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13804,44 +13804,44 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>708</v>
       </c>
@@ -13863,22 +13863,22 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1"/>
-    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="185" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="179"/>
+      <c r="C1" s="186"/>
       <c r="D1" s="68" t="s">
         <v>397</v>
       </c>
@@ -13892,20 +13892,20 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="184" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="181" t="s">
         <v>433</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="185">
+      <c r="G2" s="171">
         <v>2.75</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -13915,14 +13915,14 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="181"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A3" s="176"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="186"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="104">
         <v>7.61</v>
       </c>
@@ -13930,14 +13930,14 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="181"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="177"/>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="176"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="185">
+      <c r="G4" s="171">
         <v>2.76</v>
       </c>
       <c r="H4" s="104" t="s">
@@ -13947,18 +13947,18 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="181"/>
-      <c r="B5" s="174" t="s">
+    <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A5" s="176"/>
+      <c r="B5" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="181" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="186"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="104">
         <v>7.63</v>
       </c>
@@ -13966,14 +13966,14 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="181"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="184"/>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="176"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="182"/>
       <c r="D6" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="189">
+      <c r="G6" s="173">
         <v>2.77</v>
       </c>
       <c r="H6" s="105" t="s">
@@ -13983,14 +13983,14 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="182"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="177"/>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A7" s="187"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="190"/>
+      <c r="G7" s="174"/>
       <c r="H7" s="105">
         <v>7.65</v>
       </c>
@@ -13998,20 +13998,20 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="171" t="s">
+    <row r="8" spans="1:9" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A8" s="188" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="181" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="185">
+      <c r="G8" s="171">
         <v>2.78</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -14021,14 +14021,14 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="172"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="177"/>
+    <row r="9" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A9" s="189"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="186"/>
+      <c r="G9" s="172"/>
       <c r="H9" s="104">
         <v>7.67</v>
       </c>
@@ -14036,18 +14036,18 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="172"/>
-      <c r="B10" s="174" t="s">
+    <row r="10" spans="1:9" ht="107.25" customHeight="1" thickBot="1">
+      <c r="A10" s="189"/>
+      <c r="B10" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="181" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="185">
+      <c r="G10" s="171">
         <v>2.79</v>
       </c>
       <c r="H10" s="104" t="s">
@@ -14057,14 +14057,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="173"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="177"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="190"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="186"/>
+      <c r="G11" s="172"/>
       <c r="H11" s="104">
         <v>7.69</v>
       </c>
@@ -14072,20 +14072,20 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:9" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A12" s="184" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="181" t="s">
         <v>415</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="185">
+      <c r="G12" s="171">
         <v>2.8</v>
       </c>
       <c r="H12" s="104" t="s">
@@ -14095,14 +14095,14 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="181"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="177"/>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A13" s="176"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="G13" s="186"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="104">
         <v>7.71</v>
       </c>
@@ -14110,152 +14110,152 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="181"/>
-      <c r="B14" s="174" t="s">
+    <row r="14" spans="1:9" ht="93.75" customHeight="1">
+      <c r="A14" s="176"/>
+      <c r="B14" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="181" t="s">
         <v>417</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="188"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="177"/>
+    <row r="15" spans="1:9" ht="41.25" thickBot="1">
+      <c r="A15" s="177"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="70" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="187" t="s">
+    <row r="16" spans="1:9" ht="93.75" customHeight="1">
+      <c r="A16" s="175" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="181" t="s">
         <v>434</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="181"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="177"/>
+    <row r="17" spans="1:4" ht="27.75" thickBot="1">
+      <c r="A17" s="176"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="70" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="181"/>
-      <c r="B18" s="174" t="s">
+    <row r="18" spans="1:4" ht="66.75" customHeight="1">
+      <c r="A18" s="176"/>
+      <c r="B18" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="181" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="188"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="177"/>
+    <row r="19" spans="1:4" ht="41.25" thickBot="1">
+      <c r="A19" s="177"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="70" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="187" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="175" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="178" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="181" t="s">
         <v>424</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="181"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="184"/>
+    <row r="21" spans="1:4" ht="54">
+      <c r="A21" s="176"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="69" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="181"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="176"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="69" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="181"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="184"/>
+    <row r="23" spans="1:4" ht="40.5">
+      <c r="A23" s="176"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="69" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="181"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="184"/>
+    <row r="24" spans="1:4" ht="81">
+      <c r="A24" s="176"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="69" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="181"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="177"/>
+    <row r="25" spans="1:4" ht="81.75" thickBot="1">
+      <c r="A25" s="176"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="70" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="181"/>
-      <c r="B26" s="174" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="176"/>
+      <c r="B26" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="181" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="181"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="184"/>
+    <row r="27" spans="1:4" ht="27">
+      <c r="A27" s="176"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="69" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="177"/>
+    <row r="28" spans="1:4" ht="41.25" thickBot="1">
+      <c r="A28" s="177"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="70" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:6" ht="29.25" thickBot="1">
       <c r="A34" s="80" t="s">
         <v>3</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="22.5">
       <c r="A35" s="99">
         <v>202007</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="95"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -14307,11 +14307,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B25"/>
@@ -14328,17 +14334,11 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/aaaaa/doc/release.xlsx
+++ b/aaaaa/doc/release.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\aaaaa\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D646E3-14B9-4F5E-BC28-70046C31F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420C873-6F0A-4B9E-9E8C-3EC54FA90AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="15" r:id="rId1"/>
-    <sheet name="Deploy_Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Release_Plan" sheetId="2" r:id="rId2"/>
     <sheet name="BCA" sheetId="12" r:id="rId3"/>
     <sheet name="links" sheetId="14" r:id="rId4"/>
     <sheet name="Level_Info" sheetId="16" r:id="rId5"/>
@@ -26,7 +26,7 @@
     <sheet name="BCA-issue" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_MailEndCompose" localSheetId="1">Deploy_Plan!#REF!</definedName>
+    <definedName name="_MailEndCompose" localSheetId="1">Release_Plan!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5358,6 +5358,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5370,29 +5382,59 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5400,59 +5442,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9438,19 +9438,19 @@
       <c r="F244" s="148"/>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="159">
+      <c r="A245" s="163">
         <v>202101</v>
       </c>
-      <c r="B245" s="161" t="s">
+      <c r="B245" s="165" t="s">
         <v>730</v>
       </c>
-      <c r="C245" s="161" t="s">
+      <c r="C245" s="165" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="161" t="s">
+      <c r="D245" s="165" t="s">
         <v>735</v>
       </c>
-      <c r="E245" s="161" t="s">
+      <c r="E245" s="165" t="s">
         <v>445</v>
       </c>
       <c r="F245" s="145" t="s">
@@ -9458,29 +9458,29 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A246" s="160"/>
-      <c r="B246" s="162"/>
-      <c r="C246" s="162"/>
-      <c r="D246" s="162"/>
-      <c r="E246" s="162"/>
+      <c r="A246" s="164"/>
+      <c r="B246" s="166"/>
+      <c r="C246" s="166"/>
+      <c r="D246" s="166"/>
+      <c r="E246" s="166"/>
       <c r="F246" s="146" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="159">
+      <c r="A247" s="163">
         <v>202101</v>
       </c>
-      <c r="B247" s="161" t="s">
+      <c r="B247" s="165" t="s">
         <v>731</v>
       </c>
-      <c r="C247" s="161" t="s">
+      <c r="C247" s="165" t="s">
         <v>736</v>
       </c>
-      <c r="D247" s="161" t="s">
+      <c r="D247" s="165" t="s">
         <v>737</v>
       </c>
-      <c r="E247" s="161" t="s">
+      <c r="E247" s="165" t="s">
         <v>738</v>
       </c>
       <c r="F247" s="145" t="s">
@@ -9488,29 +9488,29 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A248" s="160"/>
-      <c r="B248" s="162"/>
-      <c r="C248" s="162"/>
-      <c r="D248" s="162"/>
-      <c r="E248" s="162"/>
+      <c r="A248" s="164"/>
+      <c r="B248" s="166"/>
+      <c r="C248" s="166"/>
+      <c r="D248" s="166"/>
+      <c r="E248" s="166"/>
       <c r="F248" s="146" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="159">
+      <c r="A249" s="163">
         <v>202101</v>
       </c>
-      <c r="B249" s="161" t="s">
+      <c r="B249" s="165" t="s">
         <v>732</v>
       </c>
-      <c r="C249" s="161" t="s">
+      <c r="C249" s="165" t="s">
         <v>734</v>
       </c>
-      <c r="D249" s="161" t="s">
+      <c r="D249" s="165" t="s">
         <v>735</v>
       </c>
-      <c r="E249" s="161" t="s">
+      <c r="E249" s="165" t="s">
         <v>445</v>
       </c>
       <c r="F249" s="145" t="s">
@@ -9518,29 +9518,29 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A250" s="160"/>
-      <c r="B250" s="162"/>
-      <c r="C250" s="162"/>
-      <c r="D250" s="162"/>
-      <c r="E250" s="162"/>
+      <c r="A250" s="164"/>
+      <c r="B250" s="166"/>
+      <c r="C250" s="166"/>
+      <c r="D250" s="166"/>
+      <c r="E250" s="166"/>
       <c r="F250" s="146" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="159">
+      <c r="A251" s="163">
         <v>202101</v>
       </c>
-      <c r="B251" s="161" t="s">
+      <c r="B251" s="165" t="s">
         <v>733</v>
       </c>
-      <c r="C251" s="161" t="s">
+      <c r="C251" s="165" t="s">
         <v>736</v>
       </c>
-      <c r="D251" s="161" t="s">
+      <c r="D251" s="165" t="s">
         <v>737</v>
       </c>
-      <c r="E251" s="161" t="s">
+      <c r="E251" s="165" t="s">
         <v>738</v>
       </c>
       <c r="F251" s="145" t="s">
@@ -9548,29 +9548,29 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A252" s="160"/>
-      <c r="B252" s="162"/>
-      <c r="C252" s="162"/>
-      <c r="D252" s="162"/>
-      <c r="E252" s="162"/>
+      <c r="A252" s="164"/>
+      <c r="B252" s="166"/>
+      <c r="C252" s="166"/>
+      <c r="D252" s="166"/>
+      <c r="E252" s="166"/>
       <c r="F252" s="146" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1">
-      <c r="A253" s="163">
+      <c r="A253" s="159">
         <v>202102</v>
       </c>
-      <c r="B253" s="165" t="s">
+      <c r="B253" s="161" t="s">
         <v>747</v>
       </c>
-      <c r="C253" s="165" t="s">
+      <c r="C253" s="161" t="s">
         <v>748</v>
       </c>
-      <c r="D253" s="165" t="s">
+      <c r="D253" s="161" t="s">
         <v>749</v>
       </c>
-      <c r="E253" s="165" t="s">
+      <c r="E253" s="161" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="94" t="s">
@@ -9578,29 +9578,29 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A254" s="164"/>
-      <c r="B254" s="166"/>
-      <c r="C254" s="166"/>
-      <c r="D254" s="166"/>
-      <c r="E254" s="166"/>
+      <c r="A254" s="160"/>
+      <c r="B254" s="162"/>
+      <c r="C254" s="162"/>
+      <c r="D254" s="162"/>
+      <c r="E254" s="162"/>
       <c r="F254" s="74" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1">
-      <c r="A255" s="163">
+      <c r="A255" s="159">
         <v>202102</v>
       </c>
-      <c r="B255" s="165" t="s">
+      <c r="B255" s="161" t="s">
         <v>753</v>
       </c>
-      <c r="C255" s="165" t="s">
+      <c r="C255" s="161" t="s">
         <v>754</v>
       </c>
-      <c r="D255" s="165" t="s">
+      <c r="D255" s="161" t="s">
         <v>755</v>
       </c>
-      <c r="E255" s="165" t="s">
+      <c r="E255" s="161" t="s">
         <v>756</v>
       </c>
       <c r="F255" s="143" t="s">
@@ -9608,29 +9608,29 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A256" s="164"/>
-      <c r="B256" s="166"/>
-      <c r="C256" s="166"/>
-      <c r="D256" s="166"/>
-      <c r="E256" s="166"/>
+      <c r="A256" s="160"/>
+      <c r="B256" s="162"/>
+      <c r="C256" s="162"/>
+      <c r="D256" s="162"/>
+      <c r="E256" s="162"/>
       <c r="F256" s="74" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1">
-      <c r="A257" s="163">
+      <c r="A257" s="159">
         <v>202102</v>
       </c>
-      <c r="B257" s="165" t="s">
+      <c r="B257" s="161" t="s">
         <v>759</v>
       </c>
-      <c r="C257" s="165" t="s">
+      <c r="C257" s="161" t="s">
         <v>748</v>
       </c>
-      <c r="D257" s="165" t="s">
+      <c r="D257" s="161" t="s">
         <v>749</v>
       </c>
-      <c r="E257" s="165" t="s">
+      <c r="E257" s="161" t="s">
         <v>750</v>
       </c>
       <c r="F257" s="143" t="s">
@@ -9638,29 +9638,29 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A258" s="164"/>
-      <c r="B258" s="166"/>
-      <c r="C258" s="166"/>
-      <c r="D258" s="166"/>
-      <c r="E258" s="166"/>
+      <c r="A258" s="160"/>
+      <c r="B258" s="162"/>
+      <c r="C258" s="162"/>
+      <c r="D258" s="162"/>
+      <c r="E258" s="162"/>
       <c r="F258" s="144" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A259" s="163">
+      <c r="A259" s="159">
         <v>202102</v>
       </c>
-      <c r="B259" s="165" t="s">
+      <c r="B259" s="161" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="165" t="s">
+      <c r="C259" s="161" t="s">
         <v>754</v>
       </c>
-      <c r="D259" s="165" t="s">
+      <c r="D259" s="161" t="s">
         <v>755</v>
       </c>
-      <c r="E259" s="165" t="s">
+      <c r="E259" s="161" t="s">
         <v>756</v>
       </c>
       <c r="F259" s="143" t="s">
@@ -9668,29 +9668,29 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A260" s="164"/>
-      <c r="B260" s="166"/>
-      <c r="C260" s="166"/>
-      <c r="D260" s="166"/>
-      <c r="E260" s="166"/>
+      <c r="A260" s="160"/>
+      <c r="B260" s="162"/>
+      <c r="C260" s="162"/>
+      <c r="D260" s="162"/>
+      <c r="E260" s="162"/>
       <c r="F260" s="74" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="159">
+      <c r="A261" s="163">
         <v>202103</v>
       </c>
-      <c r="B261" s="161" t="s">
+      <c r="B261" s="165" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="161" t="s">
+      <c r="C261" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="161" t="s">
+      <c r="D261" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="E261" s="161" t="s">
+      <c r="E261" s="165" t="s">
         <v>770</v>
       </c>
       <c r="F261" s="145" t="s">
@@ -9698,29 +9698,29 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A262" s="160"/>
-      <c r="B262" s="162"/>
-      <c r="C262" s="162"/>
-      <c r="D262" s="162"/>
-      <c r="E262" s="162"/>
+      <c r="A262" s="164"/>
+      <c r="B262" s="166"/>
+      <c r="C262" s="166"/>
+      <c r="D262" s="166"/>
+      <c r="E262" s="166"/>
       <c r="F262" s="146" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="159">
+      <c r="A263" s="163">
         <v>202103</v>
       </c>
-      <c r="B263" s="161" t="s">
+      <c r="B263" s="165" t="s">
         <v>766</v>
       </c>
-      <c r="C263" s="161" t="s">
+      <c r="C263" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="D263" s="161" t="s">
+      <c r="D263" s="165" t="s">
         <v>772</v>
       </c>
-      <c r="E263" s="161" t="s">
+      <c r="E263" s="165" t="s">
         <v>773</v>
       </c>
       <c r="F263" s="145" t="s">
@@ -9728,29 +9728,29 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A264" s="160"/>
-      <c r="B264" s="162"/>
-      <c r="C264" s="162"/>
-      <c r="D264" s="162"/>
-      <c r="E264" s="162"/>
+      <c r="A264" s="164"/>
+      <c r="B264" s="166"/>
+      <c r="C264" s="166"/>
+      <c r="D264" s="166"/>
+      <c r="E264" s="166"/>
       <c r="F264" s="146" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="159">
+      <c r="A265" s="163">
         <v>202103</v>
       </c>
-      <c r="B265" s="161" t="s">
+      <c r="B265" s="165" t="s">
         <v>767</v>
       </c>
-      <c r="C265" s="161" t="s">
+      <c r="C265" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="D265" s="161" t="s">
+      <c r="D265" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="161" t="s">
+      <c r="E265" s="165" t="s">
         <v>770</v>
       </c>
       <c r="F265" s="145" t="s">
@@ -9758,29 +9758,29 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A266" s="160"/>
-      <c r="B266" s="162"/>
-      <c r="C266" s="162"/>
-      <c r="D266" s="162"/>
-      <c r="E266" s="162"/>
+      <c r="A266" s="164"/>
+      <c r="B266" s="166"/>
+      <c r="C266" s="166"/>
+      <c r="D266" s="166"/>
+      <c r="E266" s="166"/>
       <c r="F266" s="146" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="159">
+      <c r="A267" s="163">
         <v>202103</v>
       </c>
-      <c r="B267" s="161" t="s">
+      <c r="B267" s="165" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="161" t="s">
+      <c r="C267" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="D267" s="161" t="s">
+      <c r="D267" s="165" t="s">
         <v>772</v>
       </c>
-      <c r="E267" s="161" t="s">
+      <c r="E267" s="165" t="s">
         <v>773</v>
       </c>
       <c r="F267" s="145" t="s">
@@ -9788,29 +9788,29 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A268" s="160"/>
-      <c r="B268" s="162"/>
-      <c r="C268" s="162"/>
-      <c r="D268" s="162"/>
-      <c r="E268" s="162"/>
+      <c r="A268" s="164"/>
+      <c r="B268" s="166"/>
+      <c r="C268" s="166"/>
+      <c r="D268" s="166"/>
+      <c r="E268" s="166"/>
       <c r="F268" s="146" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="163">
+      <c r="A269" s="159">
         <v>202104</v>
       </c>
-      <c r="B269" s="165" t="s">
+      <c r="B269" s="161" t="s">
         <v>783</v>
       </c>
-      <c r="C269" s="165" t="s">
+      <c r="C269" s="161" t="s">
         <v>784</v>
       </c>
-      <c r="D269" s="165" t="s">
+      <c r="D269" s="161" t="s">
         <v>785</v>
       </c>
-      <c r="E269" s="165" t="s">
+      <c r="E269" s="161" t="s">
         <v>786</v>
       </c>
       <c r="F269" s="94" t="s">
@@ -9818,29 +9818,29 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A270" s="164"/>
-      <c r="B270" s="166"/>
-      <c r="C270" s="166"/>
-      <c r="D270" s="166"/>
-      <c r="E270" s="166"/>
+      <c r="A270" s="160"/>
+      <c r="B270" s="162"/>
+      <c r="C270" s="162"/>
+      <c r="D270" s="162"/>
+      <c r="E270" s="162"/>
       <c r="F270" s="74" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1">
-      <c r="A271" s="163">
+      <c r="A271" s="159">
         <v>202104</v>
       </c>
-      <c r="B271" s="165" t="s">
+      <c r="B271" s="161" t="s">
         <v>789</v>
       </c>
-      <c r="C271" s="165" t="s">
+      <c r="C271" s="161" t="s">
         <v>790</v>
       </c>
-      <c r="D271" s="165" t="s">
+      <c r="D271" s="161" t="s">
         <v>791</v>
       </c>
-      <c r="E271" s="165" t="s">
+      <c r="E271" s="161" t="s">
         <v>792</v>
       </c>
       <c r="F271" s="143" t="s">
@@ -9848,29 +9848,29 @@
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A272" s="164"/>
-      <c r="B272" s="166"/>
-      <c r="C272" s="166"/>
-      <c r="D272" s="166"/>
-      <c r="E272" s="166"/>
+      <c r="A272" s="160"/>
+      <c r="B272" s="162"/>
+      <c r="C272" s="162"/>
+      <c r="D272" s="162"/>
+      <c r="E272" s="162"/>
       <c r="F272" s="74" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="163">
+      <c r="A273" s="159">
         <v>202104</v>
       </c>
-      <c r="B273" s="165" t="s">
+      <c r="B273" s="161" t="s">
         <v>795</v>
       </c>
-      <c r="C273" s="165" t="s">
+      <c r="C273" s="161" t="s">
         <v>784</v>
       </c>
-      <c r="D273" s="165" t="s">
+      <c r="D273" s="161" t="s">
         <v>785</v>
       </c>
-      <c r="E273" s="165" t="s">
+      <c r="E273" s="161" t="s">
         <v>786</v>
       </c>
       <c r="F273" s="143" t="s">
@@ -9878,29 +9878,29 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A274" s="164"/>
-      <c r="B274" s="166"/>
-      <c r="C274" s="166"/>
-      <c r="D274" s="166"/>
-      <c r="E274" s="166"/>
+      <c r="A274" s="160"/>
+      <c r="B274" s="162"/>
+      <c r="C274" s="162"/>
+      <c r="D274" s="162"/>
+      <c r="E274" s="162"/>
       <c r="F274" s="144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1">
-      <c r="A275" s="163">
+      <c r="A275" s="159">
         <v>202104</v>
       </c>
-      <c r="B275" s="165" t="s">
+      <c r="B275" s="161" t="s">
         <v>798</v>
       </c>
-      <c r="C275" s="165" t="s">
+      <c r="C275" s="161" t="s">
         <v>790</v>
       </c>
-      <c r="D275" s="165" t="s">
+      <c r="D275" s="161" t="s">
         <v>791</v>
       </c>
-      <c r="E275" s="165" t="s">
+      <c r="E275" s="161" t="s">
         <v>792</v>
       </c>
       <c r="F275" s="143" t="s">
@@ -9908,29 +9908,29 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A276" s="164"/>
-      <c r="B276" s="166"/>
-      <c r="C276" s="166"/>
-      <c r="D276" s="166"/>
-      <c r="E276" s="166"/>
+      <c r="A276" s="160"/>
+      <c r="B276" s="162"/>
+      <c r="C276" s="162"/>
+      <c r="D276" s="162"/>
+      <c r="E276" s="162"/>
       <c r="F276" s="74" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1">
-      <c r="A277" s="159">
+      <c r="A277" s="163">
         <v>202105</v>
       </c>
-      <c r="B277" s="161" t="s">
+      <c r="B277" s="165" t="s">
         <v>818</v>
       </c>
-      <c r="C277" s="161" t="s">
+      <c r="C277" s="165" t="s">
         <v>819</v>
       </c>
-      <c r="D277" s="161" t="s">
+      <c r="D277" s="165" t="s">
         <v>820</v>
       </c>
-      <c r="E277" s="161" t="s">
+      <c r="E277" s="165" t="s">
         <v>821</v>
       </c>
       <c r="F277" s="145" t="s">
@@ -9938,29 +9938,29 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A278" s="160"/>
-      <c r="B278" s="162"/>
-      <c r="C278" s="162"/>
-      <c r="D278" s="162"/>
-      <c r="E278" s="162"/>
+      <c r="A278" s="164"/>
+      <c r="B278" s="166"/>
+      <c r="C278" s="166"/>
+      <c r="D278" s="166"/>
+      <c r="E278" s="166"/>
       <c r="F278" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1">
-      <c r="A279" s="159">
+      <c r="A279" s="163">
         <v>202105</v>
       </c>
-      <c r="B279" s="161" t="s">
+      <c r="B279" s="165" t="s">
         <v>824</v>
       </c>
-      <c r="C279" s="161" t="s">
+      <c r="C279" s="165" t="s">
         <v>825</v>
       </c>
-      <c r="D279" s="161" t="s">
+      <c r="D279" s="165" t="s">
         <v>826</v>
       </c>
-      <c r="E279" s="161" t="s">
+      <c r="E279" s="165" t="s">
         <v>827</v>
       </c>
       <c r="F279" s="145" t="s">
@@ -9968,29 +9968,29 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A280" s="160"/>
-      <c r="B280" s="162"/>
-      <c r="C280" s="162"/>
-      <c r="D280" s="162"/>
-      <c r="E280" s="162"/>
+      <c r="A280" s="164"/>
+      <c r="B280" s="166"/>
+      <c r="C280" s="166"/>
+      <c r="D280" s="166"/>
+      <c r="E280" s="166"/>
       <c r="F280" s="146" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
-      <c r="A281" s="159">
+      <c r="A281" s="163">
         <v>202105</v>
       </c>
-      <c r="B281" s="161" t="s">
+      <c r="B281" s="165" t="s">
         <v>830</v>
       </c>
-      <c r="C281" s="161" t="s">
+      <c r="C281" s="165" t="s">
         <v>819</v>
       </c>
-      <c r="D281" s="161" t="s">
+      <c r="D281" s="165" t="s">
         <v>820</v>
       </c>
-      <c r="E281" s="161" t="s">
+      <c r="E281" s="165" t="s">
         <v>821</v>
       </c>
       <c r="F281" s="145" t="s">
@@ -9998,29 +9998,29 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A282" s="160"/>
-      <c r="B282" s="162"/>
-      <c r="C282" s="162"/>
-      <c r="D282" s="162"/>
-      <c r="E282" s="162"/>
+      <c r="A282" s="164"/>
+      <c r="B282" s="166"/>
+      <c r="C282" s="166"/>
+      <c r="D282" s="166"/>
+      <c r="E282" s="166"/>
       <c r="F282" s="146" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1">
-      <c r="A283" s="159">
+      <c r="A283" s="163">
         <v>202105</v>
       </c>
-      <c r="B283" s="161" t="s">
+      <c r="B283" s="165" t="s">
         <v>833</v>
       </c>
-      <c r="C283" s="161" t="s">
+      <c r="C283" s="165" t="s">
         <v>825</v>
       </c>
-      <c r="D283" s="161" t="s">
+      <c r="D283" s="165" t="s">
         <v>826</v>
       </c>
-      <c r="E283" s="161" t="s">
+      <c r="E283" s="165" t="s">
         <v>827</v>
       </c>
       <c r="F283" s="145" t="s">
@@ -10028,29 +10028,29 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A284" s="160"/>
-      <c r="B284" s="162"/>
-      <c r="C284" s="162"/>
-      <c r="D284" s="162"/>
-      <c r="E284" s="162"/>
+      <c r="A284" s="164"/>
+      <c r="B284" s="166"/>
+      <c r="C284" s="166"/>
+      <c r="D284" s="166"/>
+      <c r="E284" s="166"/>
       <c r="F284" s="146" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1">
-      <c r="A285" s="163">
+      <c r="A285" s="159">
         <v>202106</v>
       </c>
-      <c r="B285" s="165" t="s">
+      <c r="B285" s="161" t="s">
         <v>809</v>
       </c>
-      <c r="C285" s="165" t="s">
+      <c r="C285" s="161" t="s">
         <v>815</v>
       </c>
-      <c r="D285" s="165" t="s">
+      <c r="D285" s="161" t="s">
         <v>816</v>
       </c>
-      <c r="E285" s="165" t="s">
+      <c r="E285" s="161" t="s">
         <v>817</v>
       </c>
       <c r="F285" s="94" t="s">
@@ -10058,29 +10058,29 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A286" s="164"/>
-      <c r="B286" s="166"/>
-      <c r="C286" s="166"/>
-      <c r="D286" s="166"/>
-      <c r="E286" s="166"/>
+      <c r="A286" s="160"/>
+      <c r="B286" s="162"/>
+      <c r="C286" s="162"/>
+      <c r="D286" s="162"/>
+      <c r="E286" s="162"/>
       <c r="F286" s="74" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1">
-      <c r="A287" s="163">
+      <c r="A287" s="159">
         <v>202106</v>
       </c>
-      <c r="B287" s="165" t="s">
+      <c r="B287" s="161" t="s">
         <v>810</v>
       </c>
-      <c r="C287" s="165" t="s">
+      <c r="C287" s="161" t="s">
         <v>542</v>
       </c>
-      <c r="D287" s="165" t="s">
+      <c r="D287" s="161" t="s">
         <v>813</v>
       </c>
-      <c r="E287" s="165" t="s">
+      <c r="E287" s="161" t="s">
         <v>814</v>
       </c>
       <c r="F287" s="143" t="s">
@@ -10088,29 +10088,29 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A288" s="164"/>
-      <c r="B288" s="166"/>
-      <c r="C288" s="166"/>
-      <c r="D288" s="166"/>
-      <c r="E288" s="166"/>
+      <c r="A288" s="160"/>
+      <c r="B288" s="162"/>
+      <c r="C288" s="162"/>
+      <c r="D288" s="162"/>
+      <c r="E288" s="162"/>
       <c r="F288" s="74" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1">
-      <c r="A289" s="163">
+      <c r="A289" s="159">
         <v>202106</v>
       </c>
-      <c r="B289" s="165" t="s">
+      <c r="B289" s="161" t="s">
         <v>811</v>
       </c>
-      <c r="C289" s="165" t="s">
+      <c r="C289" s="161" t="s">
         <v>815</v>
       </c>
-      <c r="D289" s="165" t="s">
+      <c r="D289" s="161" t="s">
         <v>816</v>
       </c>
-      <c r="E289" s="165" t="s">
+      <c r="E289" s="161" t="s">
         <v>817</v>
       </c>
       <c r="F289" s="143" t="s">
@@ -10118,29 +10118,29 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A290" s="164"/>
-      <c r="B290" s="166"/>
-      <c r="C290" s="166"/>
-      <c r="D290" s="166"/>
-      <c r="E290" s="166"/>
+      <c r="A290" s="160"/>
+      <c r="B290" s="162"/>
+      <c r="C290" s="162"/>
+      <c r="D290" s="162"/>
+      <c r="E290" s="162"/>
       <c r="F290" s="144" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1">
-      <c r="A291" s="163">
+      <c r="A291" s="159">
         <v>202106</v>
       </c>
-      <c r="B291" s="165" t="s">
+      <c r="B291" s="161" t="s">
         <v>812</v>
       </c>
-      <c r="C291" s="165" t="s">
+      <c r="C291" s="161" t="s">
         <v>542</v>
       </c>
-      <c r="D291" s="165" t="s">
+      <c r="D291" s="161" t="s">
         <v>813</v>
       </c>
-      <c r="E291" s="165" t="s">
+      <c r="E291" s="161" t="s">
         <v>814</v>
       </c>
       <c r="F291" s="143" t="s">
@@ -10148,17 +10148,127 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A292" s="164"/>
-      <c r="B292" s="166"/>
-      <c r="C292" s="166"/>
-      <c r="D292" s="166"/>
-      <c r="E292" s="166"/>
+      <c r="A292" s="160"/>
+      <c r="B292" s="162"/>
+      <c r="C292" s="162"/>
+      <c r="D292" s="162"/>
+      <c r="E292" s="162"/>
       <c r="F292" s="74" t="s">
         <v>808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
     <mergeCell ref="A245:A246"/>
     <mergeCell ref="B245:B246"/>
     <mergeCell ref="C245:C246"/>
@@ -10169,116 +10279,6 @@
     <mergeCell ref="C247:C248"/>
     <mergeCell ref="D247:D248"/>
     <mergeCell ref="E247:E248"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="E257:E258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="E261:E262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="E291:E292"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10330,7 +10330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10364,19 +10364,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="159">
+      <c r="A2" s="163">
         <v>202103</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="165" t="s">
         <v>765</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="165" t="s">
         <v>770</v>
       </c>
       <c r="F2" s="145" t="s">
@@ -10384,29 +10384,29 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="146" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="159">
+      <c r="A4" s="163">
         <v>202103</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="165" t="s">
         <v>766</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="165" t="s">
         <v>772</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="165" t="s">
         <v>773</v>
       </c>
       <c r="F4" s="145" t="s">
@@ -10414,29 +10414,29 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="146" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="159">
+      <c r="A6" s="163">
         <v>202103</v>
       </c>
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="165" t="s">
         <v>767</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="E6" s="161" t="s">
+      <c r="E6" s="165" t="s">
         <v>770</v>
       </c>
       <c r="F6" s="145" t="s">
@@ -10444,29 +10444,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="146" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="159">
+      <c r="A8" s="163">
         <v>202103</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="165" t="s">
         <v>768</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="165" t="s">
         <v>772</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="165" t="s">
         <v>773</v>
       </c>
       <c r="F8" s="145" t="s">
@@ -10474,29 +10474,29 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="146" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="163">
+      <c r="A10" s="159">
         <v>202104</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="161" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="161" t="s">
         <v>784</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="161" t="s">
         <v>785</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="161" t="s">
         <v>786</v>
       </c>
       <c r="F10" s="94" t="s">
@@ -10504,29 +10504,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
       <c r="F11" s="74" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="163">
+      <c r="A12" s="159">
         <v>202104</v>
       </c>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="161" t="s">
         <v>789</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="161" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="161" t="s">
         <v>791</v>
       </c>
-      <c r="E12" s="165" t="s">
+      <c r="E12" s="161" t="s">
         <v>792</v>
       </c>
       <c r="F12" s="143" t="s">
@@ -10534,29 +10534,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="74" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="163">
+      <c r="A14" s="159">
         <v>202104</v>
       </c>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="161" t="s">
         <v>795</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="161" t="s">
         <v>784</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="161" t="s">
         <v>785</v>
       </c>
-      <c r="E14" s="165" t="s">
+      <c r="E14" s="161" t="s">
         <v>786</v>
       </c>
       <c r="F14" s="143" t="s">
@@ -10564,29 +10564,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
       <c r="F15" s="144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="163">
+      <c r="A16" s="159">
         <v>202104</v>
       </c>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="161" t="s">
         <v>798</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="161" t="s">
         <v>790</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="161" t="s">
         <v>791</v>
       </c>
-      <c r="E16" s="165" t="s">
+      <c r="E16" s="161" t="s">
         <v>792</v>
       </c>
       <c r="F16" s="143" t="s">
@@ -10594,29 +10594,29 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="74" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="159">
+      <c r="A18" s="163">
         <v>202105</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="165" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="165" t="s">
         <v>819</v>
       </c>
-      <c r="D18" s="161" t="s">
+      <c r="D18" s="165" t="s">
         <v>820</v>
       </c>
-      <c r="E18" s="161" t="s">
+      <c r="E18" s="165" t="s">
         <v>821</v>
       </c>
       <c r="F18" s="145" t="s">
@@ -10624,29 +10624,29 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="160"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
       <c r="F19" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="163">
         <v>202105</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="165" t="s">
         <v>824</v>
       </c>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="165" t="s">
         <v>825</v>
       </c>
-      <c r="D20" s="161" t="s">
+      <c r="D20" s="165" t="s">
         <v>826</v>
       </c>
-      <c r="E20" s="161" t="s">
+      <c r="E20" s="165" t="s">
         <v>827</v>
       </c>
       <c r="F20" s="145" t="s">
@@ -10654,29 +10654,29 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="160"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
       <c r="F21" s="146" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="159">
+      <c r="A22" s="163">
         <v>202105</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="165" t="s">
         <v>830</v>
       </c>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="165" t="s">
         <v>819</v>
       </c>
-      <c r="D22" s="161" t="s">
+      <c r="D22" s="165" t="s">
         <v>820</v>
       </c>
-      <c r="E22" s="161" t="s">
+      <c r="E22" s="165" t="s">
         <v>821</v>
       </c>
       <c r="F22" s="145" t="s">
@@ -10684,29 +10684,29 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="160"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="146" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="163">
         <v>202105</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="165" t="s">
         <v>833</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="165" t="s">
         <v>825</v>
       </c>
-      <c r="D24" s="161" t="s">
+      <c r="D24" s="165" t="s">
         <v>826</v>
       </c>
-      <c r="E24" s="161" t="s">
+      <c r="E24" s="165" t="s">
         <v>827</v>
       </c>
       <c r="F24" s="145" t="s">
@@ -10714,11 +10714,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="160"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
       <c r="F25" s="146" t="s">
         <v>835</v>
       </c>
@@ -10845,66 +10845,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13114,7 +13114,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1">
-      <c r="B2" s="167">
+      <c r="B2" s="170">
         <v>2.75</v>
       </c>
       <c r="C2" s="130">
@@ -13131,7 +13131,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" hidden="1">
-      <c r="B3" s="167"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="130" t="s">
         <v>563</v>
       </c>
@@ -13146,7 +13146,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" hidden="1">
-      <c r="B4" s="167">
+      <c r="B4" s="170">
         <v>2.76</v>
       </c>
       <c r="C4" s="130">
@@ -13165,7 +13165,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" hidden="1">
-      <c r="B5" s="167"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="130" t="s">
         <v>565</v>
       </c>
@@ -13182,7 +13182,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" hidden="1">
-      <c r="B6" s="167">
+      <c r="B6" s="170">
         <v>2.77</v>
       </c>
       <c r="C6" s="130">
@@ -13201,7 +13201,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" hidden="1">
-      <c r="B7" s="167"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="130" t="s">
         <v>567</v>
       </c>
@@ -13218,7 +13218,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
-      <c r="B8" s="167">
+      <c r="B8" s="170">
         <v>2.78</v>
       </c>
       <c r="C8" s="130">
@@ -13237,7 +13237,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="B9" s="167"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="130" t="s">
         <v>569</v>
       </c>
@@ -13254,7 +13254,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" hidden="1">
-      <c r="B10" s="167">
+      <c r="B10" s="170">
         <v>2.79</v>
       </c>
       <c r="C10" s="130">
@@ -13273,7 +13273,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" hidden="1">
-      <c r="B11" s="167"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="130" t="s">
         <v>571</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="169" t="s">
         <v>530</v>
       </c>
       <c r="C12" s="130">
@@ -13303,13 +13303,13 @@
         <v>7.71</v>
       </c>
       <c r="F12" s="129"/>
-      <c r="G12" s="170"/>
+      <c r="G12" s="169"/>
       <c r="H12" s="130"/>
       <c r="I12" s="132"/>
       <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="167"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="130" t="s">
         <v>573</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>573</v>
       </c>
       <c r="F13" s="129"/>
-      <c r="G13" s="167"/>
+      <c r="G13" s="170"/>
       <c r="H13" s="130"/>
       <c r="I13" s="130"/>
       <c r="J13" s="131"/>
@@ -13329,7 +13329,7 @@
       <c r="A14" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="167" t="s">
         <v>641</v>
       </c>
       <c r="C14" s="122" t="s">
@@ -13342,7 +13342,7 @@
         <v>672</v>
       </c>
       <c r="F14" s="123"/>
-      <c r="G14" s="168" t="s">
+      <c r="G14" s="167" t="s">
         <v>678</v>
       </c>
       <c r="H14" s="122" t="s">
@@ -13356,7 +13356,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="169"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="91" t="s">
         <v>651</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>651</v>
       </c>
       <c r="F15" s="124"/>
-      <c r="G15" s="169"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="91" t="s">
         <v>691</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="A16" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="169" t="s">
         <v>642</v>
       </c>
       <c r="C16" s="117" t="s">
@@ -13395,7 +13395,7 @@
         <v>674</v>
       </c>
       <c r="F16" s="123"/>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="169" t="s">
         <v>679</v>
       </c>
       <c r="H16" s="117" t="s">
@@ -13409,7 +13409,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="167"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>652</v>
       </c>
       <c r="F17" s="124"/>
-      <c r="G17" s="167"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="1" t="s">
         <v>692</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="A18" t="s">
         <v>713</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="167" t="s">
         <v>643</v>
       </c>
       <c r="C18" s="120">
@@ -13448,7 +13448,7 @@
         <v>7.7699999999999987</v>
       </c>
       <c r="F18" s="125"/>
-      <c r="G18" s="168" t="s">
+      <c r="G18" s="167" t="s">
         <v>680</v>
       </c>
       <c r="H18" s="122" t="s">
@@ -13462,7 +13462,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="169"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="121" t="s">
         <v>653</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>653</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="G19" s="169"/>
+      <c r="G19" s="168"/>
       <c r="H19" s="91" t="s">
         <v>693</v>
       </c>
@@ -13485,7 +13485,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="169" t="s">
         <v>644</v>
       </c>
       <c r="C20" s="118">
@@ -13498,7 +13498,7 @@
         <v>7.7899999999999983</v>
       </c>
       <c r="F20" s="125"/>
-      <c r="G20" s="170" t="s">
+      <c r="G20" s="169" t="s">
         <v>681</v>
       </c>
       <c r="H20" s="117" t="s">
@@ -13512,7 +13512,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="167"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="119" t="s">
         <v>654</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>654</v>
       </c>
       <c r="F21" s="126"/>
-      <c r="G21" s="167"/>
+      <c r="G21" s="170"/>
       <c r="H21" s="1" t="s">
         <v>694</v>
       </c>
@@ -13535,7 +13535,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="167" t="s">
         <v>645</v>
       </c>
       <c r="C22" s="120">
@@ -13548,7 +13548,7 @@
         <v>7.8099999999999978</v>
       </c>
       <c r="F22" s="125"/>
-      <c r="G22" s="168" t="s">
+      <c r="G22" s="167" t="s">
         <v>682</v>
       </c>
       <c r="H22" s="122"/>
@@ -13556,7 +13556,7 @@
       <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="169"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="121" t="s">
         <v>655</v>
       </c>
@@ -13567,13 +13567,13 @@
         <v>655</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="169"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="91"/>
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="169" t="s">
         <v>646</v>
       </c>
       <c r="C24" s="118">
@@ -13586,7 +13586,7 @@
         <v>7.8299999999999974</v>
       </c>
       <c r="F24" s="125"/>
-      <c r="G24" s="170" t="s">
+      <c r="G24" s="169" t="s">
         <v>683</v>
       </c>
       <c r="H24" s="117"/>
@@ -13594,7 +13594,7 @@
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="167"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="119" t="s">
         <v>656</v>
       </c>
@@ -13605,13 +13605,13 @@
         <v>656</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="167"/>
+      <c r="G25" s="170"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="167" t="s">
         <v>647</v>
       </c>
       <c r="C26" s="120">
@@ -13624,7 +13624,7 @@
         <v>7.849999999999997</v>
       </c>
       <c r="F26" s="125"/>
-      <c r="G26" s="168" t="s">
+      <c r="G26" s="167" t="s">
         <v>684</v>
       </c>
       <c r="H26" s="122"/>
@@ -13632,7 +13632,7 @@
       <c r="J26" s="122"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="169"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="121" t="s">
         <v>657</v>
       </c>
@@ -13643,13 +13643,13 @@
         <v>657</v>
       </c>
       <c r="F27" s="126"/>
-      <c r="G27" s="169"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="91"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="169" t="s">
         <v>648</v>
       </c>
       <c r="C28" s="118">
@@ -13662,7 +13662,7 @@
         <v>7.8699999999999966</v>
       </c>
       <c r="F28" s="125"/>
-      <c r="G28" s="170" t="s">
+      <c r="G28" s="169" t="s">
         <v>685</v>
       </c>
       <c r="H28" s="117"/>
@@ -13670,7 +13670,7 @@
       <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="167"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="119" t="s">
         <v>658</v>
       </c>
@@ -13681,13 +13681,13 @@
         <v>658</v>
       </c>
       <c r="F29" s="126"/>
-      <c r="G29" s="167"/>
+      <c r="G29" s="170"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="167" t="s">
         <v>649</v>
       </c>
       <c r="C30" s="120">
@@ -13700,7 +13700,7 @@
         <v>7.8899999999999961</v>
       </c>
       <c r="F30" s="125"/>
-      <c r="G30" s="168" t="s">
+      <c r="G30" s="167" t="s">
         <v>686</v>
       </c>
       <c r="H30" s="122"/>
@@ -13708,7 +13708,7 @@
       <c r="J30" s="122"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="169"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="121" t="s">
         <v>659</v>
       </c>
@@ -13719,13 +13719,13 @@
         <v>659</v>
       </c>
       <c r="F31" s="126"/>
-      <c r="G31" s="169"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="169" t="s">
         <v>650</v>
       </c>
       <c r="C32" s="118">
@@ -13738,13 +13738,13 @@
         <v>7.9099999999999957</v>
       </c>
       <c r="F32" s="125"/>
-      <c r="G32" s="170"/>
+      <c r="G32" s="169"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
       <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="167"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="119" t="s">
         <v>660</v>
       </c>
@@ -13755,19 +13755,18 @@
         <v>660</v>
       </c>
       <c r="F33" s="126"/>
-      <c r="G33" s="167"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
@@ -13784,11 +13783,12 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13875,10 +13875,10 @@
       <c r="A1" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="178" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="186"/>
+      <c r="C1" s="179"/>
       <c r="D1" s="68" t="s">
         <v>397</v>
       </c>
@@ -13893,19 +13893,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="180" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="176" t="s">
         <v>433</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="171">
+      <c r="G2" s="185">
         <v>2.75</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -13916,13 +13916,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="182"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="172"/>
+      <c r="G3" s="186"/>
       <c r="H3" s="104">
         <v>7.61</v>
       </c>
@@ -13931,13 +13931,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="176"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="183"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="185">
         <v>2.76</v>
       </c>
       <c r="H4" s="104" t="s">
@@ -13948,17 +13948,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A5" s="176"/>
-      <c r="B5" s="178" t="s">
+      <c r="A5" s="181"/>
+      <c r="B5" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="176" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="172"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="104">
         <v>7.63</v>
       </c>
@@ -13967,13 +13967,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="182"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="173">
+      <c r="G6" s="189">
         <v>2.77</v>
       </c>
       <c r="H6" s="105" t="s">
@@ -13984,13 +13984,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="183"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="190"/>
       <c r="H7" s="105">
         <v>7.65</v>
       </c>
@@ -13999,19 +13999,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="171" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="176" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="185">
         <v>2.78</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -14022,13 +14022,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A9" s="189"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="183"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="172"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="104">
         <v>7.67</v>
       </c>
@@ -14037,17 +14037,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="107.25" customHeight="1" thickBot="1">
-      <c r="A10" s="189"/>
-      <c r="B10" s="178" t="s">
+      <c r="A10" s="172"/>
+      <c r="B10" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="176" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="171">
+      <c r="G10" s="185">
         <v>2.79</v>
       </c>
       <c r="H10" s="104" t="s">
@@ -14058,13 +14058,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="190"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="183"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="172"/>
+      <c r="G11" s="186"/>
       <c r="H11" s="104">
         <v>7.69</v>
       </c>
@@ -14073,19 +14073,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="180" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C12" s="176" t="s">
         <v>415</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="171">
+      <c r="G12" s="185">
         <v>2.8</v>
       </c>
       <c r="H12" s="104" t="s">
@@ -14096,13 +14096,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="176"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="183"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="177"/>
       <c r="D13" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="G13" s="172"/>
+      <c r="G13" s="186"/>
       <c r="H13" s="104">
         <v>7.71</v>
       </c>
@@ -14111,11 +14111,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.75" customHeight="1">
-      <c r="A14" s="176"/>
-      <c r="B14" s="178" t="s">
+      <c r="A14" s="181"/>
+      <c r="B14" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="176" t="s">
         <v>417</v>
       </c>
       <c r="D14" s="69" t="s">
@@ -14123,21 +14123,21 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="41.25" thickBot="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="183"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="70" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="93.75" customHeight="1">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="187" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="176" t="s">
         <v>434</v>
       </c>
       <c r="D16" s="69" t="s">
@@ -14145,19 +14145,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.75" thickBot="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="70" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="178" t="s">
+      <c r="A18" s="181"/>
+      <c r="B18" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="181" t="s">
+      <c r="C18" s="176" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="69" t="s">
@@ -14165,21 +14165,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="41.25" thickBot="1">
-      <c r="A19" s="177"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="183"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="177"/>
       <c r="D19" s="70" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="187" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="174" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="176" t="s">
         <v>424</v>
       </c>
       <c r="D20" s="69" t="s">
@@ -14187,51 +14187,51 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="54">
-      <c r="A21" s="176"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="182"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="69" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="176"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="182"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="69" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5">
-      <c r="A23" s="176"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="182"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="69" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="81">
-      <c r="A24" s="176"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="182"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="184"/>
       <c r="D24" s="69" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="81.75" thickBot="1">
-      <c r="A25" s="176"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="183"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="177"/>
       <c r="D25" s="70" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="176"/>
-      <c r="B26" s="178" t="s">
+      <c r="A26" s="181"/>
+      <c r="B26" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="181" t="s">
+      <c r="C26" s="176" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="69" t="s">
@@ -14239,17 +14239,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
-      <c r="A27" s="176"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="182"/>
+      <c r="A27" s="181"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="69" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="41.25" thickBot="1">
-      <c r="A28" s="177"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="183"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="177"/>
       <c r="D28" s="70" t="s">
         <v>432</v>
       </c>
@@ -14307,17 +14307,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B25"/>
@@ -14334,11 +14328,17 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/aaaaa/doc/release.xlsx
+++ b/aaaaa/doc/release.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\aaaaa\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420C873-6F0A-4B9E-9E8C-3EC54FA90AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57193DE-0C83-4F2A-8994-D09951C8A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1097">
   <si>
     <t>QA</t>
   </si>
@@ -4419,12 +4419,6 @@
     <t>Executive National Sales Director (US)</t>
   </si>
   <si>
-    <t>VIP Consumer</t>
-  </si>
-  <si>
-    <t>VIP顾客</t>
-  </si>
-  <si>
     <t>NSD Retired Group</t>
   </si>
   <si>
@@ -4438,9 +4432,6 @@
   </si>
   <si>
     <t>荣誉执行首席经销商</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>Senior National Sales Director Emeritus</t>
@@ -5358,6 +5349,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5370,17 +5373,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5391,8 +5385,56 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5402,57 +5444,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9438,19 +9429,19 @@
       <c r="F244" s="148"/>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="163">
+      <c r="A245" s="159">
         <v>202101</v>
       </c>
-      <c r="B245" s="165" t="s">
+      <c r="B245" s="161" t="s">
         <v>730</v>
       </c>
-      <c r="C245" s="165" t="s">
+      <c r="C245" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="165" t="s">
+      <c r="D245" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="E245" s="165" t="s">
+      <c r="E245" s="161" t="s">
         <v>445</v>
       </c>
       <c r="F245" s="145" t="s">
@@ -9458,29 +9449,29 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A246" s="164"/>
-      <c r="B246" s="166"/>
-      <c r="C246" s="166"/>
-      <c r="D246" s="166"/>
-      <c r="E246" s="166"/>
+      <c r="A246" s="160"/>
+      <c r="B246" s="162"/>
+      <c r="C246" s="162"/>
+      <c r="D246" s="162"/>
+      <c r="E246" s="162"/>
       <c r="F246" s="146" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="163">
+      <c r="A247" s="159">
         <v>202101</v>
       </c>
-      <c r="B247" s="165" t="s">
+      <c r="B247" s="161" t="s">
         <v>731</v>
       </c>
-      <c r="C247" s="165" t="s">
+      <c r="C247" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="D247" s="165" t="s">
+      <c r="D247" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="E247" s="165" t="s">
+      <c r="E247" s="161" t="s">
         <v>738</v>
       </c>
       <c r="F247" s="145" t="s">
@@ -9488,29 +9479,29 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A248" s="164"/>
-      <c r="B248" s="166"/>
-      <c r="C248" s="166"/>
-      <c r="D248" s="166"/>
-      <c r="E248" s="166"/>
+      <c r="A248" s="160"/>
+      <c r="B248" s="162"/>
+      <c r="C248" s="162"/>
+      <c r="D248" s="162"/>
+      <c r="E248" s="162"/>
       <c r="F248" s="146" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="163">
+      <c r="A249" s="159">
         <v>202101</v>
       </c>
-      <c r="B249" s="165" t="s">
+      <c r="B249" s="161" t="s">
         <v>732</v>
       </c>
-      <c r="C249" s="165" t="s">
+      <c r="C249" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="D249" s="165" t="s">
+      <c r="D249" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="E249" s="165" t="s">
+      <c r="E249" s="161" t="s">
         <v>445</v>
       </c>
       <c r="F249" s="145" t="s">
@@ -9518,29 +9509,29 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A250" s="164"/>
-      <c r="B250" s="166"/>
-      <c r="C250" s="166"/>
-      <c r="D250" s="166"/>
-      <c r="E250" s="166"/>
+      <c r="A250" s="160"/>
+      <c r="B250" s="162"/>
+      <c r="C250" s="162"/>
+      <c r="D250" s="162"/>
+      <c r="E250" s="162"/>
       <c r="F250" s="146" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="163">
+      <c r="A251" s="159">
         <v>202101</v>
       </c>
-      <c r="B251" s="165" t="s">
+      <c r="B251" s="161" t="s">
         <v>733</v>
       </c>
-      <c r="C251" s="165" t="s">
+      <c r="C251" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="D251" s="165" t="s">
+      <c r="D251" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="E251" s="165" t="s">
+      <c r="E251" s="161" t="s">
         <v>738</v>
       </c>
       <c r="F251" s="145" t="s">
@@ -9548,29 +9539,29 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A252" s="164"/>
-      <c r="B252" s="166"/>
-      <c r="C252" s="166"/>
-      <c r="D252" s="166"/>
-      <c r="E252" s="166"/>
+      <c r="A252" s="160"/>
+      <c r="B252" s="162"/>
+      <c r="C252" s="162"/>
+      <c r="D252" s="162"/>
+      <c r="E252" s="162"/>
       <c r="F252" s="146" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1">
-      <c r="A253" s="159">
+      <c r="A253" s="163">
         <v>202102</v>
       </c>
-      <c r="B253" s="161" t="s">
+      <c r="B253" s="165" t="s">
         <v>747</v>
       </c>
-      <c r="C253" s="161" t="s">
+      <c r="C253" s="165" t="s">
         <v>748</v>
       </c>
-      <c r="D253" s="161" t="s">
+      <c r="D253" s="165" t="s">
         <v>749</v>
       </c>
-      <c r="E253" s="161" t="s">
+      <c r="E253" s="165" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="94" t="s">
@@ -9578,29 +9569,29 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A254" s="160"/>
-      <c r="B254" s="162"/>
-      <c r="C254" s="162"/>
-      <c r="D254" s="162"/>
-      <c r="E254" s="162"/>
+      <c r="A254" s="164"/>
+      <c r="B254" s="166"/>
+      <c r="C254" s="166"/>
+      <c r="D254" s="166"/>
+      <c r="E254" s="166"/>
       <c r="F254" s="74" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1">
-      <c r="A255" s="159">
+      <c r="A255" s="163">
         <v>202102</v>
       </c>
-      <c r="B255" s="161" t="s">
+      <c r="B255" s="165" t="s">
         <v>753</v>
       </c>
-      <c r="C255" s="161" t="s">
+      <c r="C255" s="165" t="s">
         <v>754</v>
       </c>
-      <c r="D255" s="161" t="s">
+      <c r="D255" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="E255" s="161" t="s">
+      <c r="E255" s="165" t="s">
         <v>756</v>
       </c>
       <c r="F255" s="143" t="s">
@@ -9608,29 +9599,29 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A256" s="160"/>
-      <c r="B256" s="162"/>
-      <c r="C256" s="162"/>
-      <c r="D256" s="162"/>
-      <c r="E256" s="162"/>
+      <c r="A256" s="164"/>
+      <c r="B256" s="166"/>
+      <c r="C256" s="166"/>
+      <c r="D256" s="166"/>
+      <c r="E256" s="166"/>
       <c r="F256" s="74" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1">
-      <c r="A257" s="159">
+      <c r="A257" s="163">
         <v>202102</v>
       </c>
-      <c r="B257" s="161" t="s">
+      <c r="B257" s="165" t="s">
         <v>759</v>
       </c>
-      <c r="C257" s="161" t="s">
+      <c r="C257" s="165" t="s">
         <v>748</v>
       </c>
-      <c r="D257" s="161" t="s">
+      <c r="D257" s="165" t="s">
         <v>749</v>
       </c>
-      <c r="E257" s="161" t="s">
+      <c r="E257" s="165" t="s">
         <v>750</v>
       </c>
       <c r="F257" s="143" t="s">
@@ -9638,29 +9629,29 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A258" s="160"/>
-      <c r="B258" s="162"/>
-      <c r="C258" s="162"/>
-      <c r="D258" s="162"/>
-      <c r="E258" s="162"/>
+      <c r="A258" s="164"/>
+      <c r="B258" s="166"/>
+      <c r="C258" s="166"/>
+      <c r="D258" s="166"/>
+      <c r="E258" s="166"/>
       <c r="F258" s="144" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A259" s="159">
+      <c r="A259" s="163">
         <v>202102</v>
       </c>
-      <c r="B259" s="161" t="s">
+      <c r="B259" s="165" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="161" t="s">
+      <c r="C259" s="165" t="s">
         <v>754</v>
       </c>
-      <c r="D259" s="161" t="s">
+      <c r="D259" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="E259" s="161" t="s">
+      <c r="E259" s="165" t="s">
         <v>756</v>
       </c>
       <c r="F259" s="143" t="s">
@@ -9668,29 +9659,29 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A260" s="160"/>
-      <c r="B260" s="162"/>
-      <c r="C260" s="162"/>
-      <c r="D260" s="162"/>
-      <c r="E260" s="162"/>
+      <c r="A260" s="164"/>
+      <c r="B260" s="166"/>
+      <c r="C260" s="166"/>
+      <c r="D260" s="166"/>
+      <c r="E260" s="166"/>
       <c r="F260" s="74" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="163">
+      <c r="A261" s="159">
         <v>202103</v>
       </c>
-      <c r="B261" s="165" t="s">
+      <c r="B261" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="165" t="s">
+      <c r="C261" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="165" t="s">
+      <c r="D261" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E261" s="165" t="s">
+      <c r="E261" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F261" s="145" t="s">
@@ -9698,29 +9689,29 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A262" s="164"/>
-      <c r="B262" s="166"/>
-      <c r="C262" s="166"/>
-      <c r="D262" s="166"/>
-      <c r="E262" s="166"/>
+      <c r="A262" s="160"/>
+      <c r="B262" s="162"/>
+      <c r="C262" s="162"/>
+      <c r="D262" s="162"/>
+      <c r="E262" s="162"/>
       <c r="F262" s="146" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="163">
+      <c r="A263" s="159">
         <v>202103</v>
       </c>
-      <c r="B263" s="165" t="s">
+      <c r="B263" s="161" t="s">
         <v>766</v>
       </c>
-      <c r="C263" s="165" t="s">
+      <c r="C263" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D263" s="165" t="s">
+      <c r="D263" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E263" s="165" t="s">
+      <c r="E263" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F263" s="145" t="s">
@@ -9728,29 +9719,29 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A264" s="164"/>
-      <c r="B264" s="166"/>
-      <c r="C264" s="166"/>
-      <c r="D264" s="166"/>
-      <c r="E264" s="166"/>
+      <c r="A264" s="160"/>
+      <c r="B264" s="162"/>
+      <c r="C264" s="162"/>
+      <c r="D264" s="162"/>
+      <c r="E264" s="162"/>
       <c r="F264" s="146" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="163">
+      <c r="A265" s="159">
         <v>202103</v>
       </c>
-      <c r="B265" s="165" t="s">
+      <c r="B265" s="161" t="s">
         <v>767</v>
       </c>
-      <c r="C265" s="165" t="s">
+      <c r="C265" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D265" s="165" t="s">
+      <c r="D265" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="165" t="s">
+      <c r="E265" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F265" s="145" t="s">
@@ -9758,29 +9749,29 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A266" s="164"/>
-      <c r="B266" s="166"/>
-      <c r="C266" s="166"/>
-      <c r="D266" s="166"/>
-      <c r="E266" s="166"/>
+      <c r="A266" s="160"/>
+      <c r="B266" s="162"/>
+      <c r="C266" s="162"/>
+      <c r="D266" s="162"/>
+      <c r="E266" s="162"/>
       <c r="F266" s="146" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="163">
+      <c r="A267" s="159">
         <v>202103</v>
       </c>
-      <c r="B267" s="165" t="s">
+      <c r="B267" s="161" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="165" t="s">
+      <c r="C267" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D267" s="165" t="s">
+      <c r="D267" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E267" s="165" t="s">
+      <c r="E267" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F267" s="145" t="s">
@@ -9788,29 +9779,29 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A268" s="164"/>
-      <c r="B268" s="166"/>
-      <c r="C268" s="166"/>
-      <c r="D268" s="166"/>
-      <c r="E268" s="166"/>
+      <c r="A268" s="160"/>
+      <c r="B268" s="162"/>
+      <c r="C268" s="162"/>
+      <c r="D268" s="162"/>
+      <c r="E268" s="162"/>
       <c r="F268" s="146" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="159">
+      <c r="A269" s="163">
         <v>202104</v>
       </c>
-      <c r="B269" s="161" t="s">
+      <c r="B269" s="165" t="s">
         <v>783</v>
       </c>
-      <c r="C269" s="161" t="s">
+      <c r="C269" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D269" s="161" t="s">
+      <c r="D269" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E269" s="161" t="s">
+      <c r="E269" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F269" s="94" t="s">
@@ -9818,29 +9809,29 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A270" s="160"/>
-      <c r="B270" s="162"/>
-      <c r="C270" s="162"/>
-      <c r="D270" s="162"/>
-      <c r="E270" s="162"/>
+      <c r="A270" s="164"/>
+      <c r="B270" s="166"/>
+      <c r="C270" s="166"/>
+      <c r="D270" s="166"/>
+      <c r="E270" s="166"/>
       <c r="F270" s="74" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1">
-      <c r="A271" s="159">
+      <c r="A271" s="163">
         <v>202104</v>
       </c>
-      <c r="B271" s="161" t="s">
+      <c r="B271" s="165" t="s">
         <v>789</v>
       </c>
-      <c r="C271" s="161" t="s">
+      <c r="C271" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D271" s="161" t="s">
+      <c r="D271" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E271" s="161" t="s">
+      <c r="E271" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F271" s="143" t="s">
@@ -9848,29 +9839,29 @@
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A272" s="160"/>
-      <c r="B272" s="162"/>
-      <c r="C272" s="162"/>
-      <c r="D272" s="162"/>
-      <c r="E272" s="162"/>
+      <c r="A272" s="164"/>
+      <c r="B272" s="166"/>
+      <c r="C272" s="166"/>
+      <c r="D272" s="166"/>
+      <c r="E272" s="166"/>
       <c r="F272" s="74" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="159">
+      <c r="A273" s="163">
         <v>202104</v>
       </c>
-      <c r="B273" s="161" t="s">
+      <c r="B273" s="165" t="s">
         <v>795</v>
       </c>
-      <c r="C273" s="161" t="s">
+      <c r="C273" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D273" s="161" t="s">
+      <c r="D273" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E273" s="161" t="s">
+      <c r="E273" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F273" s="143" t="s">
@@ -9878,29 +9869,29 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A274" s="160"/>
-      <c r="B274" s="162"/>
-      <c r="C274" s="162"/>
-      <c r="D274" s="162"/>
-      <c r="E274" s="162"/>
+      <c r="A274" s="164"/>
+      <c r="B274" s="166"/>
+      <c r="C274" s="166"/>
+      <c r="D274" s="166"/>
+      <c r="E274" s="166"/>
       <c r="F274" s="144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1">
-      <c r="A275" s="159">
+      <c r="A275" s="163">
         <v>202104</v>
       </c>
-      <c r="B275" s="161" t="s">
+      <c r="B275" s="165" t="s">
         <v>798</v>
       </c>
-      <c r="C275" s="161" t="s">
+      <c r="C275" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D275" s="161" t="s">
+      <c r="D275" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E275" s="161" t="s">
+      <c r="E275" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F275" s="143" t="s">
@@ -9908,29 +9899,29 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A276" s="160"/>
-      <c r="B276" s="162"/>
-      <c r="C276" s="162"/>
-      <c r="D276" s="162"/>
-      <c r="E276" s="162"/>
+      <c r="A276" s="164"/>
+      <c r="B276" s="166"/>
+      <c r="C276" s="166"/>
+      <c r="D276" s="166"/>
+      <c r="E276" s="166"/>
       <c r="F276" s="74" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1">
-      <c r="A277" s="163">
+      <c r="A277" s="159">
         <v>202105</v>
       </c>
-      <c r="B277" s="165" t="s">
+      <c r="B277" s="161" t="s">
         <v>818</v>
       </c>
-      <c r="C277" s="165" t="s">
+      <c r="C277" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D277" s="165" t="s">
+      <c r="D277" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E277" s="165" t="s">
+      <c r="E277" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F277" s="145" t="s">
@@ -9938,29 +9929,29 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A278" s="164"/>
-      <c r="B278" s="166"/>
-      <c r="C278" s="166"/>
-      <c r="D278" s="166"/>
-      <c r="E278" s="166"/>
+      <c r="A278" s="160"/>
+      <c r="B278" s="162"/>
+      <c r="C278" s="162"/>
+      <c r="D278" s="162"/>
+      <c r="E278" s="162"/>
       <c r="F278" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1">
-      <c r="A279" s="163">
+      <c r="A279" s="159">
         <v>202105</v>
       </c>
-      <c r="B279" s="165" t="s">
+      <c r="B279" s="161" t="s">
         <v>824</v>
       </c>
-      <c r="C279" s="165" t="s">
+      <c r="C279" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D279" s="165" t="s">
+      <c r="D279" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E279" s="165" t="s">
+      <c r="E279" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F279" s="145" t="s">
@@ -9968,29 +9959,29 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A280" s="164"/>
-      <c r="B280" s="166"/>
-      <c r="C280" s="166"/>
-      <c r="D280" s="166"/>
-      <c r="E280" s="166"/>
+      <c r="A280" s="160"/>
+      <c r="B280" s="162"/>
+      <c r="C280" s="162"/>
+      <c r="D280" s="162"/>
+      <c r="E280" s="162"/>
       <c r="F280" s="146" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
-      <c r="A281" s="163">
+      <c r="A281" s="159">
         <v>202105</v>
       </c>
-      <c r="B281" s="165" t="s">
+      <c r="B281" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="C281" s="165" t="s">
+      <c r="C281" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D281" s="165" t="s">
+      <c r="D281" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E281" s="165" t="s">
+      <c r="E281" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F281" s="145" t="s">
@@ -9998,29 +9989,29 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A282" s="164"/>
-      <c r="B282" s="166"/>
-      <c r="C282" s="166"/>
-      <c r="D282" s="166"/>
-      <c r="E282" s="166"/>
+      <c r="A282" s="160"/>
+      <c r="B282" s="162"/>
+      <c r="C282" s="162"/>
+      <c r="D282" s="162"/>
+      <c r="E282" s="162"/>
       <c r="F282" s="146" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1">
-      <c r="A283" s="163">
+      <c r="A283" s="159">
         <v>202105</v>
       </c>
-      <c r="B283" s="165" t="s">
+      <c r="B283" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="C283" s="165" t="s">
+      <c r="C283" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D283" s="165" t="s">
+      <c r="D283" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E283" s="165" t="s">
+      <c r="E283" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F283" s="145" t="s">
@@ -10028,29 +10019,29 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A284" s="164"/>
-      <c r="B284" s="166"/>
-      <c r="C284" s="166"/>
-      <c r="D284" s="166"/>
-      <c r="E284" s="166"/>
+      <c r="A284" s="160"/>
+      <c r="B284" s="162"/>
+      <c r="C284" s="162"/>
+      <c r="D284" s="162"/>
+      <c r="E284" s="162"/>
       <c r="F284" s="146" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1">
-      <c r="A285" s="159">
+      <c r="A285" s="163">
         <v>202106</v>
       </c>
-      <c r="B285" s="161" t="s">
+      <c r="B285" s="165" t="s">
         <v>809</v>
       </c>
-      <c r="C285" s="161" t="s">
+      <c r="C285" s="165" t="s">
         <v>815</v>
       </c>
-      <c r="D285" s="161" t="s">
+      <c r="D285" s="165" t="s">
         <v>816</v>
       </c>
-      <c r="E285" s="161" t="s">
+      <c r="E285" s="165" t="s">
         <v>817</v>
       </c>
       <c r="F285" s="94" t="s">
@@ -10058,29 +10049,29 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A286" s="160"/>
-      <c r="B286" s="162"/>
-      <c r="C286" s="162"/>
-      <c r="D286" s="162"/>
-      <c r="E286" s="162"/>
+      <c r="A286" s="164"/>
+      <c r="B286" s="166"/>
+      <c r="C286" s="166"/>
+      <c r="D286" s="166"/>
+      <c r="E286" s="166"/>
       <c r="F286" s="74" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1">
-      <c r="A287" s="159">
+      <c r="A287" s="163">
         <v>202106</v>
       </c>
-      <c r="B287" s="161" t="s">
+      <c r="B287" s="165" t="s">
         <v>810</v>
       </c>
-      <c r="C287" s="161" t="s">
+      <c r="C287" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="D287" s="161" t="s">
+      <c r="D287" s="165" t="s">
         <v>813</v>
       </c>
-      <c r="E287" s="161" t="s">
+      <c r="E287" s="165" t="s">
         <v>814</v>
       </c>
       <c r="F287" s="143" t="s">
@@ -10088,29 +10079,29 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A288" s="160"/>
-      <c r="B288" s="162"/>
-      <c r="C288" s="162"/>
-      <c r="D288" s="162"/>
-      <c r="E288" s="162"/>
+      <c r="A288" s="164"/>
+      <c r="B288" s="166"/>
+      <c r="C288" s="166"/>
+      <c r="D288" s="166"/>
+      <c r="E288" s="166"/>
       <c r="F288" s="74" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1">
-      <c r="A289" s="159">
+      <c r="A289" s="163">
         <v>202106</v>
       </c>
-      <c r="B289" s="161" t="s">
+      <c r="B289" s="165" t="s">
         <v>811</v>
       </c>
-      <c r="C289" s="161" t="s">
+      <c r="C289" s="165" t="s">
         <v>815</v>
       </c>
-      <c r="D289" s="161" t="s">
+      <c r="D289" s="165" t="s">
         <v>816</v>
       </c>
-      <c r="E289" s="161" t="s">
+      <c r="E289" s="165" t="s">
         <v>817</v>
       </c>
       <c r="F289" s="143" t="s">
@@ -10118,29 +10109,29 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A290" s="160"/>
-      <c r="B290" s="162"/>
-      <c r="C290" s="162"/>
-      <c r="D290" s="162"/>
-      <c r="E290" s="162"/>
+      <c r="A290" s="164"/>
+      <c r="B290" s="166"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+      <c r="E290" s="166"/>
       <c r="F290" s="144" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1">
-      <c r="A291" s="159">
+      <c r="A291" s="163">
         <v>202106</v>
       </c>
-      <c r="B291" s="161" t="s">
+      <c r="B291" s="165" t="s">
         <v>812</v>
       </c>
-      <c r="C291" s="161" t="s">
+      <c r="C291" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="D291" s="161" t="s">
+      <c r="D291" s="165" t="s">
         <v>813</v>
       </c>
-      <c r="E291" s="161" t="s">
+      <c r="E291" s="165" t="s">
         <v>814</v>
       </c>
       <c r="F291" s="143" t="s">
@@ -10148,17 +10139,127 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A292" s="160"/>
-      <c r="B292" s="162"/>
-      <c r="C292" s="162"/>
-      <c r="D292" s="162"/>
-      <c r="E292" s="162"/>
+      <c r="A292" s="164"/>
+      <c r="B292" s="166"/>
+      <c r="C292" s="166"/>
+      <c r="D292" s="166"/>
+      <c r="E292" s="166"/>
       <c r="F292" s="74" t="s">
         <v>808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
     <mergeCell ref="A289:A290"/>
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="C289:C290"/>
@@ -10169,116 +10270,6 @@
     <mergeCell ref="C291:C292"/>
     <mergeCell ref="D291:D292"/>
     <mergeCell ref="E291:E292"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="E261:E262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="E257:E258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="E247:E248"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10328,7 +10319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
@@ -10364,19 +10355,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="163">
+      <c r="A2" s="159">
         <v>202103</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F2" s="145" t="s">
@@ -10384,29 +10375,29 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="146" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="163">
+      <c r="A4" s="159">
         <v>202103</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="161" t="s">
         <v>766</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F4" s="145" t="s">
@@ -10414,29 +10405,29 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="146" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="163">
+      <c r="A6" s="159">
         <v>202103</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="161" t="s">
         <v>767</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F6" s="145" t="s">
@@ -10444,29 +10435,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="146" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="163">
+      <c r="A8" s="159">
         <v>202103</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="161" t="s">
         <v>768</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E8" s="165" t="s">
+      <c r="E8" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F8" s="145" t="s">
@@ -10474,29 +10465,29 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
       <c r="F9" s="146" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="159">
+      <c r="A10" s="163">
         <v>202104</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="165" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F10" s="94" t="s">
@@ -10504,29 +10495,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="160"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
+      <c r="A11" s="164"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="74" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="163">
         <v>202104</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="165" t="s">
         <v>789</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F12" s="143" t="s">
@@ -10534,29 +10525,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="160"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="74" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="159">
+      <c r="A14" s="163">
         <v>202104</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="165" t="s">
         <v>795</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="165" t="s">
         <v>785</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="165" t="s">
         <v>786</v>
       </c>
       <c r="F14" s="143" t="s">
@@ -10564,29 +10555,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="160"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="159">
+      <c r="A16" s="163">
         <v>202104</v>
       </c>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="165" t="s">
         <v>798</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="165" t="s">
         <v>790</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="165" t="s">
         <v>791</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="165" t="s">
         <v>792</v>
       </c>
       <c r="F16" s="143" t="s">
@@ -10594,29 +10585,29 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="74" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="163">
+      <c r="A18" s="159">
         <v>202105</v>
       </c>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="161" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="165" t="s">
+      <c r="C18" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D18" s="165" t="s">
+      <c r="D18" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F18" s="145" t="s">
@@ -10624,29 +10615,29 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
       <c r="F19" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="163">
+      <c r="A20" s="159">
         <v>202105</v>
       </c>
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="161" t="s">
         <v>824</v>
       </c>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D20" s="165" t="s">
+      <c r="D20" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E20" s="165" t="s">
+      <c r="E20" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F20" s="145" t="s">
@@ -10654,29 +10645,29 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="146" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="163">
+      <c r="A22" s="159">
         <v>202105</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="C22" s="165" t="s">
+      <c r="C22" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E22" s="165" t="s">
+      <c r="E22" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F22" s="145" t="s">
@@ -10684,29 +10675,29 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="146" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="163">
+      <c r="A24" s="159">
         <v>202105</v>
       </c>
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E24" s="165" t="s">
+      <c r="E24" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F24" s="145" t="s">
@@ -10714,11 +10705,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
       <c r="F25" s="146" t="s">
         <v>835</v>
       </c>
@@ -10737,7 +10728,7 @@
         <v>816</v>
       </c>
       <c r="E26" s="157" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F26" s="94" t="s">
         <v>801</v>
@@ -10764,10 +10755,10 @@
         <v>813</v>
       </c>
       <c r="D28" s="157" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E28" s="157" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F28" s="143" t="s">
         <v>803</v>
@@ -10797,7 +10788,7 @@
         <v>816</v>
       </c>
       <c r="E30" s="157" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F30" s="143" t="s">
         <v>805</v>
@@ -10824,10 +10815,10 @@
         <v>813</v>
       </c>
       <c r="D32" s="157" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E32" s="157" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F32" s="143" t="s">
         <v>807</v>
@@ -10845,66 +10836,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11723,10 +11714,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F33C17-FDB8-4FAD-A110-B31C89B7D3F9}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12313,50 +12304,50 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>130</v>
+        <v>820</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1042</v>
+        <v>1085</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>130</v>
+        <v>820</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1042</v>
+        <v>1085</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12364,11 +12355,11 @@
         <v>840</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12376,19 +12367,19 @@
         <v>840</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
@@ -12397,62 +12388,14 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
         <v>1093</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>800</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>830</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>850</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>850</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -13114,7 +13057,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1">
-      <c r="B2" s="170">
+      <c r="B2" s="167">
         <v>2.75</v>
       </c>
       <c r="C2" s="130">
@@ -13131,7 +13074,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" hidden="1">
-      <c r="B3" s="170"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="130" t="s">
         <v>563</v>
       </c>
@@ -13146,7 +13089,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" hidden="1">
-      <c r="B4" s="170">
+      <c r="B4" s="167">
         <v>2.76</v>
       </c>
       <c r="C4" s="130">
@@ -13165,7 +13108,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" hidden="1">
-      <c r="B5" s="170"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="130" t="s">
         <v>565</v>
       </c>
@@ -13182,7 +13125,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" hidden="1">
-      <c r="B6" s="170">
+      <c r="B6" s="167">
         <v>2.77</v>
       </c>
       <c r="C6" s="130">
@@ -13201,7 +13144,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" hidden="1">
-      <c r="B7" s="170"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="130" t="s">
         <v>567</v>
       </c>
@@ -13218,7 +13161,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
-      <c r="B8" s="170">
+      <c r="B8" s="167">
         <v>2.78</v>
       </c>
       <c r="C8" s="130">
@@ -13237,7 +13180,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="B9" s="170"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="130" t="s">
         <v>569</v>
       </c>
@@ -13254,7 +13197,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" hidden="1">
-      <c r="B10" s="170">
+      <c r="B10" s="167">
         <v>2.79</v>
       </c>
       <c r="C10" s="130">
@@ -13273,7 +13216,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" hidden="1">
-      <c r="B11" s="170"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="130" t="s">
         <v>571</v>
       </c>
@@ -13290,7 +13233,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="170" t="s">
         <v>530</v>
       </c>
       <c r="C12" s="130">
@@ -13303,13 +13246,13 @@
         <v>7.71</v>
       </c>
       <c r="F12" s="129"/>
-      <c r="G12" s="169"/>
+      <c r="G12" s="170"/>
       <c r="H12" s="130"/>
       <c r="I12" s="132"/>
       <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="170"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="130" t="s">
         <v>573</v>
       </c>
@@ -13320,7 +13263,7 @@
         <v>573</v>
       </c>
       <c r="F13" s="129"/>
-      <c r="G13" s="170"/>
+      <c r="G13" s="167"/>
       <c r="H13" s="130"/>
       <c r="I13" s="130"/>
       <c r="J13" s="131"/>
@@ -13329,7 +13272,7 @@
       <c r="A14" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="168" t="s">
         <v>641</v>
       </c>
       <c r="C14" s="122" t="s">
@@ -13342,7 +13285,7 @@
         <v>672</v>
       </c>
       <c r="F14" s="123"/>
-      <c r="G14" s="167" t="s">
+      <c r="G14" s="168" t="s">
         <v>678</v>
       </c>
       <c r="H14" s="122" t="s">
@@ -13356,7 +13299,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="168"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="91" t="s">
         <v>651</v>
       </c>
@@ -13367,7 +13310,7 @@
         <v>651</v>
       </c>
       <c r="F15" s="124"/>
-      <c r="G15" s="168"/>
+      <c r="G15" s="169"/>
       <c r="H15" s="91" t="s">
         <v>691</v>
       </c>
@@ -13382,7 +13325,7 @@
       <c r="A16" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="170" t="s">
         <v>642</v>
       </c>
       <c r="C16" s="117" t="s">
@@ -13395,7 +13338,7 @@
         <v>674</v>
       </c>
       <c r="F16" s="123"/>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="170" t="s">
         <v>679</v>
       </c>
       <c r="H16" s="117" t="s">
@@ -13409,7 +13352,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="170"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
@@ -13420,7 +13363,7 @@
         <v>652</v>
       </c>
       <c r="F17" s="124"/>
-      <c r="G17" s="170"/>
+      <c r="G17" s="167"/>
       <c r="H17" s="1" t="s">
         <v>692</v>
       </c>
@@ -13435,7 +13378,7 @@
       <c r="A18" t="s">
         <v>713</v>
       </c>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="168" t="s">
         <v>643</v>
       </c>
       <c r="C18" s="120">
@@ -13448,7 +13391,7 @@
         <v>7.7699999999999987</v>
       </c>
       <c r="F18" s="125"/>
-      <c r="G18" s="167" t="s">
+      <c r="G18" s="168" t="s">
         <v>680</v>
       </c>
       <c r="H18" s="122" t="s">
@@ -13462,7 +13405,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="168"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="121" t="s">
         <v>653</v>
       </c>
@@ -13473,7 +13416,7 @@
         <v>653</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="G19" s="168"/>
+      <c r="G19" s="169"/>
       <c r="H19" s="91" t="s">
         <v>693</v>
       </c>
@@ -13485,7 +13428,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="170" t="s">
         <v>644</v>
       </c>
       <c r="C20" s="118">
@@ -13498,7 +13441,7 @@
         <v>7.7899999999999983</v>
       </c>
       <c r="F20" s="125"/>
-      <c r="G20" s="169" t="s">
+      <c r="G20" s="170" t="s">
         <v>681</v>
       </c>
       <c r="H20" s="117" t="s">
@@ -13512,7 +13455,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="170"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="119" t="s">
         <v>654</v>
       </c>
@@ -13523,7 +13466,7 @@
         <v>654</v>
       </c>
       <c r="F21" s="126"/>
-      <c r="G21" s="170"/>
+      <c r="G21" s="167"/>
       <c r="H21" s="1" t="s">
         <v>694</v>
       </c>
@@ -13535,7 +13478,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="168" t="s">
         <v>645</v>
       </c>
       <c r="C22" s="120">
@@ -13548,7 +13491,7 @@
         <v>7.8099999999999978</v>
       </c>
       <c r="F22" s="125"/>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="168" t="s">
         <v>682</v>
       </c>
       <c r="H22" s="122"/>
@@ -13556,7 +13499,7 @@
       <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="168"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="121" t="s">
         <v>655</v>
       </c>
@@ -13567,13 +13510,13 @@
         <v>655</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="168"/>
+      <c r="G23" s="169"/>
       <c r="H23" s="91"/>
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="170" t="s">
         <v>646</v>
       </c>
       <c r="C24" s="118">
@@ -13586,7 +13529,7 @@
         <v>7.8299999999999974</v>
       </c>
       <c r="F24" s="125"/>
-      <c r="G24" s="169" t="s">
+      <c r="G24" s="170" t="s">
         <v>683</v>
       </c>
       <c r="H24" s="117"/>
@@ -13594,7 +13537,7 @@
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="170"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="119" t="s">
         <v>656</v>
       </c>
@@ -13605,13 +13548,13 @@
         <v>656</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="170"/>
+      <c r="G25" s="167"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="168" t="s">
         <v>647</v>
       </c>
       <c r="C26" s="120">
@@ -13624,7 +13567,7 @@
         <v>7.849999999999997</v>
       </c>
       <c r="F26" s="125"/>
-      <c r="G26" s="167" t="s">
+      <c r="G26" s="168" t="s">
         <v>684</v>
       </c>
       <c r="H26" s="122"/>
@@ -13632,7 +13575,7 @@
       <c r="J26" s="122"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="168"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="121" t="s">
         <v>657</v>
       </c>
@@ -13643,13 +13586,13 @@
         <v>657</v>
       </c>
       <c r="F27" s="126"/>
-      <c r="G27" s="168"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="91"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="170" t="s">
         <v>648</v>
       </c>
       <c r="C28" s="118">
@@ -13662,7 +13605,7 @@
         <v>7.8699999999999966</v>
       </c>
       <c r="F28" s="125"/>
-      <c r="G28" s="169" t="s">
+      <c r="G28" s="170" t="s">
         <v>685</v>
       </c>
       <c r="H28" s="117"/>
@@ -13670,7 +13613,7 @@
       <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="170"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="119" t="s">
         <v>658</v>
       </c>
@@ -13681,13 +13624,13 @@
         <v>658</v>
       </c>
       <c r="F29" s="126"/>
-      <c r="G29" s="170"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="168" t="s">
         <v>649</v>
       </c>
       <c r="C30" s="120">
@@ -13700,7 +13643,7 @@
         <v>7.8899999999999961</v>
       </c>
       <c r="F30" s="125"/>
-      <c r="G30" s="167" t="s">
+      <c r="G30" s="168" t="s">
         <v>686</v>
       </c>
       <c r="H30" s="122"/>
@@ -13708,7 +13651,7 @@
       <c r="J30" s="122"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="168"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="121" t="s">
         <v>659</v>
       </c>
@@ -13719,13 +13662,13 @@
         <v>659</v>
       </c>
       <c r="F31" s="126"/>
-      <c r="G31" s="168"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="170" t="s">
         <v>650</v>
       </c>
       <c r="C32" s="118">
@@ -13738,13 +13681,13 @@
         <v>7.9099999999999957</v>
       </c>
       <c r="F32" s="125"/>
-      <c r="G32" s="169"/>
+      <c r="G32" s="170"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
       <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="170"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="119" t="s">
         <v>660</v>
       </c>
@@ -13755,18 +13698,19 @@
         <v>660</v>
       </c>
       <c r="F33" s="126"/>
-      <c r="G33" s="170"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
@@ -13783,12 +13727,11 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13875,10 +13818,10 @@
       <c r="A1" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="185" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="179"/>
+      <c r="C1" s="186"/>
       <c r="D1" s="68" t="s">
         <v>397</v>
       </c>
@@ -13893,19 +13836,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="184" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="181" t="s">
         <v>433</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="185">
+      <c r="G2" s="171">
         <v>2.75</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -13916,13 +13859,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="186"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="104">
         <v>7.61</v>
       </c>
@@ -13931,13 +13874,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="177"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="185">
+      <c r="G4" s="171">
         <v>2.76</v>
       </c>
       <c r="H4" s="104" t="s">
@@ -13948,17 +13891,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A5" s="181"/>
-      <c r="B5" s="174" t="s">
+      <c r="A5" s="176"/>
+      <c r="B5" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="181" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="186"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="104">
         <v>7.63</v>
       </c>
@@ -13967,13 +13910,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="181"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="184"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="182"/>
       <c r="D6" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="189">
+      <c r="G6" s="173">
         <v>2.77</v>
       </c>
       <c r="H6" s="105" t="s">
@@ -13984,13 +13927,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="182"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="177"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="190"/>
+      <c r="G7" s="174"/>
       <c r="H7" s="105">
         <v>7.65</v>
       </c>
@@ -13999,19 +13942,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="188" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="181" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="185">
+      <c r="G8" s="171">
         <v>2.78</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -14022,13 +13965,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="177"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="186"/>
+      <c r="G9" s="172"/>
       <c r="H9" s="104">
         <v>7.67</v>
       </c>
@@ -14037,17 +13980,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="107.25" customHeight="1" thickBot="1">
-      <c r="A10" s="172"/>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="189"/>
+      <c r="B10" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="181" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="185">
+      <c r="G10" s="171">
         <v>2.79</v>
       </c>
       <c r="H10" s="104" t="s">
@@ -14058,13 +14001,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="173"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="177"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="186"/>
+      <c r="G11" s="172"/>
       <c r="H11" s="104">
         <v>7.69</v>
       </c>
@@ -14073,19 +14016,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="184" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="181" t="s">
         <v>415</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="185">
+      <c r="G12" s="171">
         <v>2.8</v>
       </c>
       <c r="H12" s="104" t="s">
@@ -14096,13 +14039,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="177"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="G13" s="186"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="104">
         <v>7.71</v>
       </c>
@@ -14111,11 +14054,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.75" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="174" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="181" t="s">
         <v>417</v>
       </c>
       <c r="D14" s="69" t="s">
@@ -14123,21 +14066,21 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="41.25" thickBot="1">
-      <c r="A15" s="188"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="177"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="70" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="93.75" customHeight="1">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="175" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="181" t="s">
         <v>434</v>
       </c>
       <c r="D16" s="69" t="s">
@@ -14145,19 +14088,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.75" thickBot="1">
-      <c r="A17" s="181"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="177"/>
+      <c r="A17" s="176"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="70" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66.75" customHeight="1">
-      <c r="A18" s="181"/>
-      <c r="B18" s="174" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="181" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="69" t="s">
@@ -14165,21 +14108,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="41.25" thickBot="1">
-      <c r="A19" s="188"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="177"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="70" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="175" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="178" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="181" t="s">
         <v>424</v>
       </c>
       <c r="D20" s="69" t="s">
@@ -14187,51 +14130,51 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="54">
-      <c r="A21" s="181"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="184"/>
+      <c r="A21" s="176"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="69" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="181"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
+      <c r="A22" s="176"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="69" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5">
-      <c r="A23" s="181"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="184"/>
+      <c r="A23" s="176"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="69" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="81">
-      <c r="A24" s="181"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="184"/>
+      <c r="A24" s="176"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="69" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="81.75" thickBot="1">
-      <c r="A25" s="181"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="177"/>
+      <c r="A25" s="176"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="70" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="181"/>
-      <c r="B26" s="174" t="s">
+      <c r="A26" s="176"/>
+      <c r="B26" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="181" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="69" t="s">
@@ -14239,17 +14182,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
-      <c r="A27" s="181"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="184"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="69" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="41.25" thickBot="1">
-      <c r="A28" s="188"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="177"/>
+      <c r="A28" s="177"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="70" t="s">
         <v>432</v>
       </c>
@@ -14307,11 +14250,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B25"/>
@@ -14328,17 +14277,11 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
